--- a/sriramModel-nelson-melancholic-patientID_55-sims-cort-5-iterations-p_stress.xlsx
+++ b/sriramModel-nelson-melancholic-patientID_55-sims-cort-5-iterations-p_stress.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.894711338023518</v>
+        <v>9.883510350593051</v>
       </c>
       <c r="C2">
-        <v>9.900277993376381</v>
+        <v>9.87863396961087</v>
       </c>
       <c r="D2">
-        <v>9.887853358035327</v>
+        <v>9.882451828743454</v>
       </c>
       <c r="E2">
-        <v>9.88516549089298</v>
+        <v>9.84615136739937</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>9.878633256510728</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.991551532072325</v>
+        <v>9.971168718269318</v>
       </c>
       <c r="C3">
-        <v>10.00277839429271</v>
+        <v>9.964149998978394</v>
       </c>
       <c r="D3">
-        <v>9.979471764892082</v>
+        <v>9.968690696251249</v>
       </c>
       <c r="E3">
-        <v>9.974159866440745</v>
+        <v>9.899768808330579</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>9.963038285162737</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.08081391843895</v>
+        <v>10.0531194616781</v>
       </c>
       <c r="C4">
-        <v>10.09778773684315</v>
+        <v>10.0464902885875</v>
       </c>
       <c r="D4">
-        <v>10.06500434114784</v>
+        <v>10.04892054584787</v>
       </c>
       <c r="E4">
-        <v>10.05715518932441</v>
+        <v>9.95079404316818</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>10.0432320594525</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.16296704298864</v>
+        <v>10.12969155382469</v>
       </c>
       <c r="C5">
-        <v>10.18576706594732</v>
+        <v>10.12579312782952</v>
       </c>
       <c r="D5">
-        <v>10.14478260403293</v>
+        <v>10.12352432514943</v>
       </c>
       <c r="E5">
-        <v>10.13450667623003</v>
+        <v>9.999364737431144</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>10.11942197462965</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.23845601376827</v>
+        <v>10.20119998156559</v>
       </c>
       <c r="C6">
-        <v>10.26715373590051</v>
+        <v>10.20219291878989</v>
       </c>
       <c r="D6">
-        <v>10.21912274169681</v>
+        <v>10.19286577215092</v>
       </c>
       <c r="E6">
-        <v>10.20655381053732</v>
+        <v>10.04561432556702</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>10.19180652836262</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.30770375754491</v>
+        <v>10.26794579812572</v>
       </c>
       <c r="C7">
-        <v>10.34236259983341</v>
+        <v>10.27582045481558</v>
       </c>
       <c r="D7">
-        <v>10.28832528113567</v>
+        <v>10.25728952989833</v>
       </c>
       <c r="E7">
-        <v>10.27362112291392</v>
+        <v>10.08967234275642</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>10.26057617428584</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.37111215618435</v>
+        <v>10.33021695281909</v>
       </c>
       <c r="C8">
-        <v>10.41178722803224</v>
+        <v>10.34680298931398</v>
       </c>
       <c r="D8">
-        <v>10.35267605746843</v>
+        <v>10.31712271414126</v>
       </c>
       <c r="E8">
-        <v>10.33601882364696</v>
+        <v>10.1316645682826</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>10.32591300831226</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.42906312747907</v>
+        <v>10.38828901623409</v>
       </c>
       <c r="C9">
-        <v>10.47580103629262</v>
+        <v>10.41526431166558</v>
       </c>
       <c r="D9">
-        <v>10.41244729702826</v>
+        <v>10.37267580958301</v>
       </c>
       <c r="E9">
-        <v>10.39404344670375</v>
+        <v>10.17171311511852</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>10.38799134068454</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.48191965216748</v>
+        <v>10.44242561353287</v>
       </c>
       <c r="C10">
-        <v>10.53475831245363</v>
+        <v>10.48132478473202</v>
       </c>
       <c r="D10">
-        <v>10.46789812902748</v>
+        <v>10.4242433132769</v>
       </c>
       <c r="E10">
-        <v>10.44797835319387</v>
+        <v>10.20993652703807</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>10.44697819670367</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.53002672557576</v>
+        <v>10.49287889976008</v>
       </c>
       <c r="C11">
-        <v>10.58899519716733</v>
+        <v>10.54510149913929</v>
       </c>
       <c r="D11">
-        <v>10.51927508022442</v>
+        <v>10.47210456233814</v>
       </c>
       <c r="E11">
-        <v>10.49809419350105</v>
+        <v>10.24644986775333</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>10.50303358211934</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.57371225958849</v>
+        <v>10.53989010799411</v>
       </c>
       <c r="C12">
-        <v>10.63883069234621</v>
+        <v>10.6067083664788</v>
       </c>
       <c r="D12">
-        <v>10.56681272725708</v>
+        <v>10.5165245684563</v>
       </c>
       <c r="E12">
-        <v>10.54464938275704</v>
+        <v>10.28136488388762</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>10.5563106943058</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.61328794197991</v>
+        <v>10.58369007987254</v>
       </c>
       <c r="C13">
-        <v>10.68456750021657</v>
+        <v>10.66625618114402</v>
       </c>
       <c r="D13">
-        <v>10.61073431449072</v>
+        <v>10.55775473347533</v>
       </c>
       <c r="E13">
-        <v>10.58789118164557</v>
+        <v>10.3147900225352</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>10.60695618052583</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.64905004529162</v>
+        <v>10.62449969349251</v>
       </c>
       <c r="C14">
-        <v>10.7264928271024</v>
+        <v>10.72385269002262</v>
       </c>
       <c r="D14">
-        <v>10.65125229412997</v>
+        <v>10.59603352983138</v>
       </c>
       <c r="E14">
-        <v>10.62805598829627</v>
+        <v>10.34683029975351</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>10.65511046401241</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.68128019031915</v>
+        <v>10.66253025239417</v>
       </c>
       <c r="C15">
-        <v>10.76487919173546</v>
+        <v>10.77960266555329</v>
       </c>
       <c r="D15">
-        <v>10.68856882191985</v>
+        <v>10.63158717151046</v>
       </c>
       <c r="E15">
-        <v>10.66536952264485</v>
+        <v>10.37758785545705</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>10.70090801260639</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.71024607080343</v>
+        <v>10.69798389320844</v>
       </c>
       <c r="C16">
-        <v>10.79998517559058</v>
+        <v>10.83360797660406</v>
       </c>
       <c r="D16">
-        <v>10.72287623911149</v>
+        <v>10.66463012193582</v>
       </c>
       <c r="E16">
-        <v>10.70004731994365</v>
+        <v>10.40716159740369</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>10.74447758104605</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.73620214370947</v>
+        <v>10.7310539956387</v>
       </c>
       <c r="C17">
-        <v>10.83205612355292</v>
+        <v>10.88596766646993</v>
       </c>
       <c r="D17">
-        <v>10.75435754127539</v>
+        <v>10.69536563891113</v>
       </c>
       <c r="E17">
-        <v>10.73229528864332</v>
+        <v>10.43564772029302</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>10.78594243995191</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.75939028907359</v>
+        <v>10.76192555324523</v>
       </c>
       <c r="C18">
-        <v>10.86132482272463</v>
+        <v>10.93677802678799</v>
       </c>
       <c r="D18">
-        <v>10.78318689902186</v>
+        <v>10.72398654436107</v>
       </c>
       <c r="E18">
-        <v>10.76231018379767</v>
+        <v>10.463139483575</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>10.82542059919848</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.78004042416406</v>
+        <v>10.79077558627629</v>
       </c>
       <c r="C19">
-        <v>10.88801209786125</v>
+        <v>10.98613263975293</v>
       </c>
       <c r="D19">
-        <v>10.8095299159043</v>
+        <v>10.75067567058569</v>
       </c>
       <c r="E19">
-        <v>10.79027996523813</v>
+        <v>10.48972746325464</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>10.86302502568757</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.79837108701862</v>
+        <v>10.81777340883756</v>
       </c>
       <c r="C20">
-        <v>10.91232742062014</v>
+        <v>11.03412248185198</v>
       </c>
       <c r="D20">
-        <v>10.83354430905601</v>
+        <v>10.77560638359789</v>
       </c>
       <c r="E20">
-        <v>10.81638413770797</v>
+        <v>10.51549943061417</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>10.89886385924949</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.8145899934417</v>
+        <v>10.84308096971499</v>
       </c>
       <c r="C21">
-        <v>10.93446947981553</v>
+        <v>11.08083598358933</v>
       </c>
       <c r="D21">
-        <v>10.85537948525817</v>
+        <v>10.7989430796277</v>
       </c>
       <c r="E21">
-        <v>10.84079411928477</v>
+        <v>10.54054055182899</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>10.93304066254829</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.82889457377181</v>
+        <v>10.86685315949419</v>
       </c>
       <c r="C22">
-        <v>10.95462671737901</v>
+        <v>11.1263590195145</v>
       </c>
       <c r="D22">
-        <v>10.87517803352447</v>
+        <v>10.82084150867703</v>
       </c>
       <c r="E22">
-        <v>10.86367361221578</v>
+        <v>10.5649333844004</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>10.96565443358348</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.84147247347958</v>
+        <v>10.88923810882144</v>
       </c>
       <c r="C23">
-        <v>10.97297783731776</v>
+        <v>11.17077505145581</v>
       </c>
       <c r="D23">
-        <v>10.89307560200206</v>
+        <v>10.84144925913887</v>
       </c>
       <c r="E23">
-        <v>10.88517892798961</v>
+        <v>10.58875802704575</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>10.99680009095009</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.85250203204865</v>
+        <v>10.91037748529275</v>
       </c>
       <c r="C24">
-        <v>10.98969228780931</v>
+        <v>11.21416510175333</v>
       </c>
       <c r="D24">
-        <v>10.90920123462266</v>
+        <v>10.86090617843936</v>
       </c>
       <c r="E24">
-        <v>10.90545932818303</v>
+        <v>10.61209213731672</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>11.02656814042402</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.86215273463865</v>
+        <v>10.93040675347421</v>
       </c>
       <c r="C25">
-        <v>11.00493070687484</v>
+        <v>11.25660785365372</v>
       </c>
       <c r="D25">
-        <v>10.92367756562152</v>
+        <v>10.87934476885607</v>
       </c>
       <c r="E25">
-        <v>10.9246572951419</v>
+        <v>10.63501104426746</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>11.0550454640272</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>10.87058564216478</v>
+        <v>10.94945542664922</v>
       </c>
       <c r="C26">
-        <v>11.0188453572638</v>
+        <v>11.29817968136376</v>
       </c>
       <c r="D26">
-        <v>10.93662107983064</v>
+        <v>10.89689057093793</v>
       </c>
       <c r="E26">
-        <v>10.94290888546846</v>
+        <v>10.65758777178292</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>11.0823149949016</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>10.877953800193</v>
+        <v>10.96764730582798</v>
       </c>
       <c r="C27">
-        <v>11.03158054166187</v>
+        <v>11.33895470191522</v>
       </c>
       <c r="D27">
-        <v>10.9481425136705</v>
+        <v>10.91366249949601</v>
       </c>
       <c r="E27">
-        <v>10.96034393659991</v>
+        <v>10.67989312839375</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>11.10845623274484</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>10.88440262706984</v>
+        <v>10.98510071034524</v>
       </c>
       <c r="C28">
-        <v>11.04327298425072</v>
+        <v>11.37900482279955</v>
       </c>
       <c r="D28">
-        <v>10.95834715612411</v>
+        <v>10.92977317171264</v>
       </c>
       <c r="E28">
-        <v>10.97708638393653</v>
+        <v>10.70199572723215</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>11.13354513418874</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>10.89007028277218</v>
+        <v>11.00192869411543</v>
       </c>
       <c r="C29">
-        <v>11.05405220182907</v>
+        <v>11.41839977552725</v>
       </c>
       <c r="D29">
-        <v>10.96733509830136</v>
+        <v>10.94532922666846</v>
       </c>
       <c r="E29">
-        <v>10.99325448531866</v>
+        <v>10.72396206207592</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>11.15765442204793</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>10.89508801642295</v>
+        <v>11.01823925533243</v>
       </c>
       <c r="C30">
-        <v>11.06404084892651</v>
+        <v>11.45720716456796</v>
       </c>
       <c r="D30">
-        <v>10.97520145396427</v>
+        <v>10.96043160831953</v>
       </c>
       <c r="E30">
-        <v>11.00896105772832</v>
+        <v>10.7458565528044</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>11.18085352863342</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>10.89958049716212</v>
+        <v>11.03413553172661</v>
       </c>
       <c r="C31">
-        <v>11.07335504458254</v>
+        <v>11.49549248331094</v>
       </c>
       <c r="D31">
-        <v>10.98203657602553</v>
+        <v>10.97517586181844</v>
       </c>
       <c r="E31">
-        <v>11.02431375430962</v>
+        <v>10.76774159916727</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>11.2032088642772</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>10.90366612045026</v>
+        <v>11.0497159834875</v>
       </c>
       <c r="C32">
-        <v>11.08210468576854</v>
+        <v>11.53331917426583</v>
       </c>
       <c r="D32">
-        <v>10.98792627098672</v>
+        <v>10.98965240177888</v>
       </c>
       <c r="E32">
-        <v>11.03941524299925</v>
+        <v>10.78967762925961</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>11.22478383002416</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>10.90745731908409</v>
+        <v>11.06507456773227</v>
       </c>
       <c r="C33">
-        <v>11.09039374172591</v>
+        <v>11.57074862753742</v>
       </c>
       <c r="D33">
-        <v>10.99295201536474</v>
+        <v>11.00394677303707</v>
       </c>
       <c r="E33">
-        <v>11.05436344516225</v>
+        <v>10.81172314920931</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>11.24563899554836</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>10.911060818139</v>
+        <v>11.08030089799339</v>
       </c>
       <c r="C34">
-        <v>11.09832053126419</v>
+        <v>11.60784024088924</v>
       </c>
       <c r="D34">
-        <v>10.99719116799319</v>
+        <v>11.01813988812663</v>
       </c>
       <c r="E34">
-        <v>11.06925173193496</v>
+        <v>10.83393477666279</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>11.26583219412378</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>10.91457796622684</v>
+        <v>11.09548039477832</v>
       </c>
       <c r="C35">
-        <v>11.10597798781759</v>
+        <v>11.64465141664243</v>
       </c>
       <c r="D35">
-        <v>11.00071715498747</v>
+        <v>11.03230825247878</v>
       </c>
       <c r="E35">
-        <v>11.08416909517838</v>
+        <v>10.85636729103642</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>11.28541860930096</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>10.91810489659454</v>
+        <v>11.11069442702445</v>
       </c>
       <c r="C36">
-        <v>11.11345390423448</v>
+        <v>11.68123761046984</v>
       </c>
       <c r="D36">
-        <v>11.00359964294415</v>
+        <v>11.0465241825835</v>
       </c>
       <c r="E36">
-        <v>11.09920037365454</v>
+        <v>10.87907365661619</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>11.30445090433993</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>10.92173282009631</v>
+        <v>11.12602044074007</v>
       </c>
       <c r="C37">
-        <v>11.12083116567968</v>
+        <v>11.71765232682135</v>
       </c>
       <c r="D37">
-        <v>11.00590470414159</v>
+        <v>11.06085601141647</v>
       </c>
       <c r="E37">
-        <v>11.11442636685139</v>
+        <v>10.90210505595108</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>11.32297924275673</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>10.92554823184124</v>
+        <v>11.14153207839913</v>
       </c>
       <c r="C38">
-        <v>11.12818796959088</v>
+        <v>11.75394715666792</v>
       </c>
       <c r="D38">
-        <v>11.00769497366189</v>
+        <v>11.07536828178424</v>
       </c>
       <c r="E38">
-        <v>11.12992404426784</v>
+        <v>10.92551092677156</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>11.3410514275328</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>10.92963308702517</v>
+        <v>11.15729928538703</v>
       </c>
       <c r="C39">
-        <v>11.13559803121782</v>
+        <v>11.79017177028091</v>
       </c>
       <c r="D39">
-        <v>11.00902979978805</v>
+        <v>11.09012192446173</v>
       </c>
       <c r="E39">
-        <v>11.145766686125</v>
+        <v>10.94933897383834</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>11.35871290694106</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>10.93406504527919</v>
+        <v>11.17338840319288</v>
       </c>
       <c r="C40">
-        <v>11.14313077514799</v>
+        <v>11.8263739391674</v>
       </c>
       <c r="D40">
-        <v>11.00996538612156</v>
+        <v>11.10517443070525</v>
       </c>
       <c r="E40">
-        <v>11.16202401288183</v>
+        <v>10.97363519420823</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>11.37600687265785</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>10.93891761432723</v>
+        <v>11.18986225395363</v>
       </c>
       <c r="C41">
-        <v>11.15085151749968</v>
+        <v>11.86259953382834</v>
       </c>
       <c r="D41">
-        <v>11.01055492282637</v>
+        <v>11.12058000957609</v>
       </c>
       <c r="E41">
-        <v>11.17876235947012</v>
+        <v>10.99844389070375</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>11.39297430409822</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>10.94426031634703</v>
+        <v>11.20678021091589</v>
       </c>
       <c r="C42">
-        <v>11.15882162930705</v>
+        <v>11.89889251694451</v>
       </c>
       <c r="D42">
-        <v>11.01084870853778</v>
+        <v>11.13638974084935</v>
       </c>
       <c r="E42">
-        <v>11.19604475504585</v>
+        <v>11.02380766517495</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>11.40965399124998</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>10.95015888116656</v>
+        <v>11.22419825716473</v>
       </c>
       <c r="C43">
-        <v>11.16709869137946</v>
+        <v>11.93529495790655</v>
       </c>
       <c r="D43">
-        <v>11.01089426367774</v>
+        <v>11.15265170189529</v>
       </c>
       <c r="E43">
-        <v>11.21393106748584</v>
+        <v>11.04976743442697</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>11.42608261279133</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>10.95667531858564</v>
+        <v>11.24216903138762</v>
       </c>
       <c r="C44">
-        <v>11.17573663595083</v>
+        <v>11.97184698261821</v>
       </c>
       <c r="D44">
-        <v>11.01073643524469</v>
+        <v>11.1694110966746</v>
       </c>
       <c r="E44">
-        <v>11.23247810358209</v>
+        <v>11.07636240346882</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>11.44229470092056</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>10.96386808586265</v>
+        <v>11.26074185499035</v>
       </c>
       <c r="C45">
-        <v>11.18478587521048</v>
+        <v>12.00858680963074</v>
       </c>
       <c r="D45">
-        <v>11.01041749250474</v>
+        <v>11.18671036509692</v>
       </c>
       <c r="E45">
-        <v>11.25173967295822</v>
+        <v>11.10363004000594</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>11.45832270488338</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>10.97179217902995</v>
+        <v>11.2799627489574</v>
       </c>
       <c r="C46">
-        <v>11.19429341589928</v>
+        <v>12.04555065658338</v>
       </c>
       <c r="D46">
-        <v>11.00997721452188</v>
+        <v>11.2045892865157</v>
       </c>
       <c r="E46">
-        <v>11.27176671657457</v>
+        <v>11.13160606696024</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>11.47419694744875</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>10.98049919457459</v>
+        <v>11.29987443251806</v>
       </c>
       <c r="C47">
-        <v>11.20430296484561</v>
+        <v>12.08277278497716</v>
       </c>
       <c r="D47">
-        <v>11.00945296668883</v>
+        <v>11.22308505576202</v>
       </c>
       <c r="E47">
-        <v>11.29260731598246</v>
+        <v>11.16032437631155</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>11.48994563684128</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>10.9900374513741</v>
+        <v>11.32051630463263</v>
       </c>
       <c r="C48">
-        <v>11.21485501305237</v>
+        <v>12.12028538086768</v>
       </c>
       <c r="D48">
-        <v>11.00887976733179</v>
+        <v>11.24223235091847</v>
       </c>
       <c r="E48">
-        <v>11.31430676983915</v>
+        <v>11.18981698295202</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>11.5055947967006</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>11.00045199023903</v>
+        <v>11.34192441060064</v>
       </c>
       <c r="C49">
-        <v>11.22598691062659</v>
+        <v>12.15811853108294</v>
       </c>
       <c r="D49">
-        <v>11.00829034270977</v>
+        <v>11.26206337933677</v>
       </c>
       <c r="E49">
-        <v>11.3369076338754</v>
+        <v>11.22011395472593</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>11.52116822196409</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>11.0117846024716</v>
+        <v>11.36413137846705</v>
       </c>
       <c r="C50">
-        <v>11.23773292344547</v>
+        <v>12.19630014897831</v>
       </c>
       <c r="D50">
-        <v>11.00771516991228</v>
+        <v>11.28260790863497</v>
       </c>
       <c r="E50">
-        <v>11.36044968815903</v>
+        <v>11.25124326400832</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>11.53668741513428</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>11.02407391186087</v>
+        <v>11.38716634337936</v>
       </c>
       <c r="C51">
-        <v>11.25012427622493</v>
+        <v>12.23485589775666</v>
       </c>
       <c r="D51">
-        <v>11.00718250631709</v>
+        <v>11.30389326262031</v>
       </c>
       <c r="E51">
-        <v>11.38496992054923</v>
+        <v>11.28323065288136</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>11.5521714824422</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>11.03735521700445</v>
+        <v>11.41105485002514</v>
       </c>
       <c r="C52">
-        <v>11.26318918243656</v>
+        <v>12.27380908067216</v>
       </c>
       <c r="D52">
-        <v>11.00671840785433</v>
+        <v>11.32594429385298</v>
       </c>
       <c r="E52">
-        <v>11.41050247761031</v>
+        <v>11.31609946598549</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>11.56763703912206</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>11.05188911795972</v>
+        <v>11.43598376728592</v>
       </c>
       <c r="C53">
-        <v>11.27720067058213</v>
+        <v>12.31327490216566</v>
       </c>
       <c r="D53">
-        <v>11.00663046727919</v>
+        <v>11.34896960913514</v>
       </c>
       <c r="E53">
-        <v>11.43724281762925</v>
+        <v>11.3499713613579</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>11.58329494766019</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>11.06882059032862</v>
+        <v>11.46277245801146</v>
       </c>
       <c r="C54">
-        <v>11.29338535193019</v>
+        <v>12.35373093898551</v>
       </c>
       <c r="D54">
-        <v>11.0083269484648</v>
+        <v>11.37389845444727</v>
       </c>
       <c r="E54">
-        <v>11.46601679566588</v>
+        <v>11.38536051081498</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>11.60011850893045</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>11.08945156728979</v>
+        <v>11.49235457293976</v>
       </c>
       <c r="C55">
-        <v>11.31313858469744</v>
+        <v>12.39572656343447</v>
       </c>
       <c r="D55">
-        <v>11.01341373288868</v>
+        <v>11.40178771428052</v>
       </c>
       <c r="E55">
-        <v>11.49776954686285</v>
+        <v>11.42285692910605</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>11.61921576016848</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>11.11500660419313</v>
+        <v>11.52560589438978</v>
       </c>
       <c r="C56">
-        <v>11.33776934271379</v>
+        <v>12.43978366392027</v>
       </c>
       <c r="D56">
-        <v>11.02340546034739</v>
+        <v>11.43363163798177</v>
       </c>
       <c r="E56">
-        <v>11.53339432108795</v>
+        <v>11.46302193298351</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>11.6416272590858</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>11.14663478544479</v>
+        <v>11.56334551630936</v>
       </c>
       <c r="C57">
-        <v>11.3685038316172</v>
+        <v>12.48639679697203</v>
       </c>
       <c r="D57">
-        <v>11.03972828634803</v>
+        <v>11.47036386573391</v>
       </c>
       <c r="E57">
-        <v>11.57373418761843</v>
+        <v>11.50638699466423</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>11.66832592520726</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>11.18541013342361</v>
+        <v>11.6063353812867</v>
       </c>
       <c r="C58">
-        <v>11.40648717513696</v>
+        <v>12.53603209441657</v>
       </c>
       <c r="D58">
-        <v>11.06372148250566</v>
+        <v>11.5128580942338</v>
       </c>
       <c r="E58">
-        <v>11.61958165697044</v>
+        <v>11.5534519469038</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>11.70021568439068</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>11.2323315777724</v>
+        <v>11.65527948001037</v>
       </c>
       <c r="C59">
-        <v>11.45278469491939</v>
+        <v>12.5891259034804</v>
       </c>
       <c r="D59">
-        <v>11.09663826689059</v>
+        <v>11.56192804667272</v>
       </c>
       <c r="E59">
-        <v>11.67167777254481</v>
+        <v>11.60468255225931</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>11.73812934122757</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>11.28832202212056</v>
+        <v>11.71082263214037</v>
       </c>
       <c r="C60">
-        <v>11.50838242823508</v>
+        <v>12.64608317252602</v>
       </c>
       <c r="D60">
-        <v>11.13964570728281</v>
+        <v>11.61832653231467</v>
       </c>
       <c r="E60">
-        <v>11.73071033306418</v>
+        <v>11.6605075852228</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>11.78282564472421</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>11.3542263407286</v>
+        <v>11.77354871646877</v>
       </c>
       <c r="C61">
-        <v>11.57418687985936</v>
+        <v>12.70727531159883</v>
       </c>
       <c r="D61">
-        <v>11.19382335437625</v>
+        <v>11.68274337115924</v>
       </c>
       <c r="E61">
-        <v>11.79731110777086</v>
+        <v>11.7213152135944</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>11.83498536796114</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>11.43080817376725</v>
+        <v>11.84397833693986</v>
       </c>
       <c r="C62">
-        <v>11.65102376892589</v>
+        <v>12.77303757894929</v>
       </c>
       <c r="D62">
-        <v>11.26016039361393</v>
+        <v>11.75580213747184</v>
       </c>
       <c r="E62">
-        <v>11.87205202562463</v>
+        <v>11.78744877169269</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>11.89520654584992</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>11.51874535764369</v>
+        <v>11.9225660187633</v>
       </c>
       <c r="C63">
-        <v>11.73963555192843</v>
+        <v>12.84366601780178</v>
       </c>
       <c r="D63">
-        <v>11.33955087915691</v>
+        <v>11.83805546010182</v>
       </c>
       <c r="E63">
-        <v>11.95544007226927</v>
+        <v>11.85920178020359</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>11.96399882196847</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>11.61862353730469</v>
+        <v>12.00969669504492</v>
       </c>
       <c r="C64">
-        <v>11.84067746847825</v>
+        <v>12.91941371473352</v>
       </c>
       <c r="D64">
-        <v>11.43278643179987</v>
+        <v>11.92997871230031</v>
       </c>
       <c r="E64">
-        <v>12.04791065883652</v>
+        <v>11.93681224387055</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>12.04177699754326</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>11.73092782721039</v>
+        <v>12.10568151830497</v>
       </c>
       <c r="C65">
-        <v>11.95471172377407</v>
+        <v>13.00048635605182</v>
       </c>
       <c r="D65">
-        <v>11.54054568457822</v>
+        <v>12.031961878524</v>
       </c>
       <c r="E65">
-        <v>12.14981944703992</v>
+        <v>12.02045637979618</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>12.12885359849752</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>11.85603208951073</v>
+        <v>12.21075299022833</v>
       </c>
       <c r="C66">
-        <v>12.08219923537163</v>
+        <v>13.0870370573739</v>
       </c>
       <c r="D66">
-        <v>11.66337950107079</v>
+        <v>12.14429950935195</v>
       </c>
       <c r="E66">
-        <v>12.26143247517215</v>
+        <v>12.11024189444034</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>12.22543088602641</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>11.99418565936062</v>
+        <v>12.32505931109436</v>
       </c>
       <c r="C67">
-        <v>12.22348832054975</v>
+        <v>13.17916050325365</v>
       </c>
       <c r="D67">
-        <v>11.80169084053872</v>
+        <v>12.26717877013086</v>
       </c>
       <c r="E67">
-        <v>12.38291465901145</v>
+        <v>12.20620116370557</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>12.33159270335268</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>12.1454972472866</v>
+        <v>12.44865808399769</v>
       </c>
       <c r="C68">
-        <v>12.37879949003942</v>
+        <v>13.27688642387885</v>
       </c>
       <c r="D68">
-        <v>11.9557080645013</v>
+        <v>12.40066577552031</v>
       </c>
       <c r="E68">
-        <v>12.51431687204765</v>
+        <v>12.30828477246577</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>12.4472964598055</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>12.30991613751046</v>
+        <v>12.58150947747946</v>
       </c>
       <c r="C69">
-        <v>12.54820536228233</v>
+        <v>13.38017273790251</v>
       </c>
       <c r="D69">
-        <v>12.12545066646904</v>
+        <v>12.54469066657013</v>
       </c>
       <c r="E69">
-        <v>12.65556214900212</v>
+        <v>12.41635597887893</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>12.57236594206348</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>12.48721111777503</v>
+        <v>12.72346883981643</v>
       </c>
       <c r="C70">
-        <v>12.73160464977807</v>
+        <v>13.4888987748444</v>
       </c>
       <c r="D70">
-        <v>12.31068723573765</v>
+        <v>12.69903234289865</v>
       </c>
       <c r="E70">
-        <v>12.80643189489733</v>
+        <v>12.5301868411993</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>12.70648572565751</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>12.67694811985126</v>
+        <v>12.87427898261548</v>
       </c>
       <c r="C71">
-        <v>12.92868923191646</v>
+        <v>13.60285931848568</v>
       </c>
       <c r="D71">
-        <v>12.510887121855</v>
+        <v>12.86330421429399</v>
       </c>
       <c r="E71">
-        <v>12.96655336355272</v>
+        <v>12.64945681345894</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>12.84919815251119</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>12.87846851248202</v>
+        <v>13.03356327357239</v>
       </c>
       <c r="C72">
-        <v>13.13890418840646</v>
+        <v>13.72176040606717</v>
       </c>
       <c r="D72">
-        <v>12.72517053415785</v>
+        <v>13.03694272122497</v>
       </c>
       <c r="E72">
-        <v>13.13539013020985</v>
+        <v>12.77375451867602</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>12.99990398821283</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>13.09087111084343</v>
+        <v>13.2008195559924</v>
       </c>
       <c r="C73">
-        <v>13.36140215774267</v>
+        <v>13.84521819023004</v>
       </c>
       <c r="D73">
-        <v>12.95226598166358</v>
+        <v>13.21920087558525</v>
       </c>
       <c r="E73">
-        <v>13.31223753828228</v>
+        <v>12.90258325891665</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>13.15786764164117</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>13.3130016250601</v>
+        <v>13.3754158834371</v>
       </c>
       <c r="C74">
-        <v>13.59499645615801</v>
+        <v>13.97276188761023</v>
       </c>
       <c r="D74">
-        <v>13.19048858479541</v>
+        <v>13.4091491326679</v>
       </c>
       <c r="E74">
-        <v>13.49622528194444</v>
+        <v>13.03537059453459</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>13.32222772936515</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>13.54345436626716</v>
+        <v>13.556589414508</v>
       </c>
       <c r="C75">
-        <v>13.83812327381333</v>
+        <v>14.10384200474083</v>
       </c>
       <c r="D75">
-        <v>13.43775495675906</v>
+        <v>13.60568570661731</v>
       </c>
       <c r="E75">
-        <v>13.68632856904216</v>
+        <v>13.17148170601173</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>13.49201347583972</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>13.7805907894158</v>
+        <v>13.74344982883944</v>
       </c>
       <c r="C76">
-        <v>14.0888278085539</v>
+        <v>14.23784382930919</v>
       </c>
       <c r="D76">
-        <v>13.69164688812361</v>
+        <v>13.80755753562764</v>
       </c>
       <c r="E76">
-        <v>13.88138922078596</v>
+        <v>13.31023593559232</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>13.66616662272953</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>14.0225778935991</v>
+        <v>13.93498819480663</v>
       </c>
       <c r="C77">
-        <v>14.34479401598184</v>
+        <v>14.37410589581408</v>
       </c>
       <c r="D77">
-        <v>13.94952528913111</v>
+        <v>14.01339190437109</v>
       </c>
       <c r="E77">
-        <v>14.08014582938827</v>
+        <v>13.45092545874235</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>13.84356804636603</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>14.26744665202317</v>
+        <v>14.13009293840608</v>
       </c>
       <c r="C78">
-        <v>14.60343315462838</v>
+        <v>14.51194174562107</v>
       </c>
       <c r="D78">
-        <v>14.20868096811957</v>
+        <v>14.22173708492564</v>
       </c>
       <c r="E78">
-        <v>14.28127177301256</v>
+        <v>13.59283465111462</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>14.02306765772555</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>14.51316662004974</v>
+        <v>14.32757280942848</v>
       </c>
       <c r="C79">
-        <v>14.86203046447021</v>
+        <v>14.65066240156101</v>
       </c>
       <c r="D79">
-        <v>14.46649453429388</v>
+        <v>14.4311089009934</v>
       </c>
       <c r="E79">
-        <v>14.48341774539913</v>
+        <v>13.73525876481129</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>14.20351548136607</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>14.75772885209695</v>
+        <v>14.52618707865566</v>
       </c>
       <c r="C80">
-        <v>15.11792679173088</v>
+        <v>14.78959792774347</v>
       </c>
       <c r="D80">
-        <v>14.72057672786433</v>
+        <v>14.64003897609661</v>
       </c>
       <c r="E80">
-        <v>14.68525453498184</v>
+        <v>13.87752063594012</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>14.38379179757471</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>14.99922704428725</v>
+        <v>14.72468089816225</v>
       </c>
       <c r="C81">
-        <v>15.36869397044772</v>
+        <v>14.92811549761125</v>
       </c>
       <c r="D81">
-        <v>14.96886652925927</v>
+        <v>14.84712022438997</v>
       </c>
       <c r="E81">
-        <v>14.88551319511595</v>
+        <v>14.01898443487583</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>14.56283422948575</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>15.23592687350038</v>
+        <v>14.9218235101571</v>
       </c>
       <c r="C82">
-        <v>15.61226557207817</v>
+        <v>15.06563295838087</v>
       </c>
       <c r="D82">
-        <v>15.209679729678</v>
+        <v>15.05104572810797</v>
       </c>
       <c r="E82">
-        <v>15.08301833371903</v>
+        <v>14.15906595890949</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>14.73966008415362</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>15.46631625670509</v>
+        <v>15.116445191157</v>
       </c>
       <c r="C83">
-        <v>15.8470025048163</v>
+        <v>15.20162751751167</v>
       </c>
       <c r="D83">
-        <v>15.44171296280602</v>
+        <v>15.25063837654352</v>
       </c>
       <c r="E83">
-        <v>15.27671294004786</v>
+        <v>14.29723937404226</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>14.91338297741197</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>15.6891334484462</v>
+        <v>15.30747027431667</v>
       </c>
       <c r="C84">
-        <v>16.07169681048252</v>
+        <v>15.33563980010406</v>
       </c>
       <c r="D84">
-        <v>15.66401603908757</v>
+        <v>15.44487005530052</v>
       </c>
       <c r="E84">
-        <v>15.46567393130025</v>
+        <v>14.43304057973868</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>15.08322330376368</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>15.90337399233993</v>
+        <v>15.49394243825238</v>
       </c>
       <c r="C85">
-        <v>16.28553179938628</v>
+        <v>15.46727413015206</v>
       </c>
       <c r="D85">
-        <v>15.87594641976418</v>
+        <v>15.63287075637163</v>
       </c>
       <c r="E85">
-        <v>15.64911880061841</v>
+        <v>14.56606773898536</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>15.24851294197912</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>16.10827693719189</v>
+        <v>15.67503577587658</v>
       </c>
       <c r="C86">
-        <v>16.48801869644016</v>
+        <v>15.59619385409404</v>
       </c>
       <c r="D86">
-        <v>16.07711575170487</v>
+        <v>15.81392324577872</v>
       </c>
       <c r="E86">
-        <v>15.82640054606848</v>
+        <v>14.69597752296931</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>15.40869064252248</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>16.30329834830134</v>
+        <v>15.85005201149208</v>
       </c>
       <c r="C87">
-        <v>16.67892829702509</v>
+        <v>15.72211255415563</v>
       </c>
       <c r="D87">
-        <v>16.26733769907355</v>
+        <v>15.98744557515127</v>
       </c>
       <c r="E87">
-        <v>15.99699288164596</v>
+        <v>14.82247732990096</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>15.56328892891626</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>16.48809445669731</v>
+        <v>16.01843961014394</v>
       </c>
       <c r="C88">
-        <v>16.85823247004682</v>
+        <v>15.8447967771818</v>
       </c>
       <c r="D88">
-        <v>16.44658647653891</v>
+        <v>16.15300244093655</v>
       </c>
       <c r="E88">
-        <v>16.16049691795595</v>
+        <v>14.94532917030531</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>15.7119442560027</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>16.66249301846771</v>
+        <v>16.17978860841393</v>
       </c>
       <c r="C89">
-        <v>17.02605289280256</v>
+        <v>15.96406220713722</v>
       </c>
       <c r="D89">
-        <v>16.61495962397048</v>
+        <v>16.31029444535988</v>
       </c>
       <c r="E89">
-        <v>16.31663067737523</v>
+        <v>15.06434618889141</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>15.85439075104813</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>16.82646100795302</v>
+        <v>16.33381361792619</v>
       </c>
       <c r="C90">
-        <v>17.18261650864044</v>
+        <v>16.07976653551095</v>
       </c>
       <c r="D90">
-        <v>16.77264568980533</v>
+        <v>16.45913808555605</v>
       </c>
       <c r="E90">
-        <v>16.46521225212528</v>
+        <v>15.17938591958259</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>15.99044639188162</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>16.98007346310738</v>
+        <v>16.48033711481586</v>
       </c>
       <c r="C91">
-        <v>17.32822365891245</v>
+        <v>16.19180319897838</v>
       </c>
       <c r="D91">
-        <v>16.91989736709479</v>
+        <v>16.59944816197581</v>
       </c>
       <c r="E91">
-        <v>16.60614472760933</v>
+        <v>15.29034464598375</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>16.12000172801275</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>17.12348982377412</v>
+        <v>16.61927104486292</v>
       </c>
       <c r="C92">
-        <v>17.46322152767457</v>
+        <v>16.30009598324479</v>
       </c>
       <c r="D92">
-        <v>17.05701270166466</v>
+        <v>16.73122095814966</v>
       </c>
       <c r="E92">
-        <v>16.73940135802538</v>
+        <v>15.3971517754452</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>16.24300812962561</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>17.25693207212677</v>
+        <v>16.75060099488676</v>
       </c>
       <c r="C93">
-        <v>17.58798715950992</v>
+        <v>16.40459445434285</v>
       </c>
       <c r="D93">
-        <v>17.18431911663996</v>
+        <v>16.85451887024093</v>
       </c>
       <c r="E93">
-        <v>16.86501331423639</v>
+        <v>15.49976478851909</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>16.35946750120287</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>17.38066735249017</v>
+        <v>16.87437227568066</v>
       </c>
       <c r="C94">
-        <v>17.70291357400954</v>
+        <v>16.50526934678235</v>
       </c>
       <c r="D94">
-        <v>17.30216220888373</v>
+        <v>16.96945778959677</v>
       </c>
       <c r="E94">
-        <v>16.98305862131133</v>
+        <v>15.5981650758401</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>16.46942353210423</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>17.49499538045908</v>
+        <v>16.9906770486569</v>
       </c>
       <c r="C95">
-        <v>17.80840038012057</v>
+        <v>16.6021091333518</v>
       </c>
       <c r="D95">
-        <v>17.41089764737365</v>
+        <v>17.07619584294632</v>
       </c>
       <c r="E95">
-        <v>17.09365241451099</v>
+        <v>15.69235409898931</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>16.57295364318318</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>17.60023710612923</v>
+        <v>17.09964348247198</v>
       </c>
       <c r="C96">
-        <v>17.90484717427909</v>
+        <v>16.69511724539533</v>
       </c>
       <c r="D96">
-        <v>17.51088428898268</v>
+        <v>17.17492354170364</v>
       </c>
       <c r="E96">
-        <v>17.19693888505182</v>
+        <v>15.78234994965305</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>16.67016198047939</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>17.69672575466447</v>
+        <v>17.20142699796883</v>
       </c>
       <c r="C97">
-        <v>17.99264858280553</v>
+        <v>16.78430942624785</v>
       </c>
       <c r="D97">
-        <v>17.60247979573456</v>
+        <v>17.26585582448551</v>
       </c>
       <c r="E97">
-        <v>17.29308462483903</v>
+        <v>15.86818442996209</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>16.76117364886789</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>17.78480120034928</v>
+        <v>17.29620330247973</v>
       </c>
       <c r="C98">
-        <v>18.07219105848351</v>
+        <v>16.86971156109731</v>
       </c>
       <c r="D98">
-        <v>17.68603703171747</v>
+        <v>17.34922557841447</v>
       </c>
       <c r="E98">
-        <v>17.38227296376058</v>
+        <v>15.9499006225041</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>16.84612995171951</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>17.8648047591643</v>
+        <v>17.38416262025776</v>
       </c>
       <c r="C99">
-        <v>18.14385052935328</v>
+        <v>16.95135749005802</v>
       </c>
       <c r="D99">
-        <v>17.76190163808715</v>
+        <v>17.42527814355548</v>
       </c>
       <c r="E99">
-        <v>17.464699260815</v>
+        <v>16.02755083660192</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>16.92518431098971</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>17.9370750261455</v>
+        <v>17.46550490881495</v>
       </c>
       <c r="C100">
-        <v>18.20799096068236</v>
+        <v>17.02928817610427</v>
       </c>
       <c r="D100">
-        <v>17.83041046417956</v>
+        <v>17.49426672753873</v>
       </c>
       <c r="E100">
-        <v>17.54056705762392</v>
+        <v>16.10119482815919</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>16.99849878941393</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>18.00194532344797</v>
+        <v>17.54043606873529</v>
       </c>
       <c r="C101">
-        <v>18.26496350759495</v>
+        <v>17.10355017160368</v>
       </c>
       <c r="D101">
-        <v>17.89189030427471</v>
+        <v>17.55644875311937</v>
       </c>
       <c r="E101">
-        <v>17.61008501833405</v>
+        <v>16.17089825465944</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>17.06624126057939</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>18.0597417769549</v>
+        <v>17.6091650494887</v>
       </c>
       <c r="C102">
-        <v>18.31510605229055</v>
+        <v>17.17419437452093</v>
       </c>
       <c r="D102">
-        <v>17.94665706484625</v>
+        <v>17.61208298251529</v>
       </c>
       <c r="E102">
-        <v>17.67346442207373</v>
+        <v>16.23673136312863</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>17.12858315460997</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>18.11078170544914</v>
+        <v>17.67190162396644</v>
       </c>
       <c r="C103">
-        <v>18.35874288550477</v>
+        <v>17.2412751645564</v>
       </c>
       <c r="D103">
-        <v>17.9950151555298</v>
+        <v>17.66142720984518</v>
       </c>
       <c r="E103">
-        <v>17.73091713211326</v>
+        <v>16.29876793361367</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>17.18569763317818</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>18.15537265251179</v>
+        <v>17.72885463361423</v>
       </c>
       <c r="C104">
-        <v>18.39618477469966</v>
+        <v>17.30484977975292</v>
       </c>
       <c r="D104">
-        <v>18.03725777916815</v>
+        <v>17.7047364141701</v>
       </c>
       <c r="E104">
-        <v>17.78265400309881</v>
+        <v>16.35708439240937</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>17.23775808765551</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>18.19381176478305</v>
+        <v>17.78023060967515</v>
       </c>
       <c r="C105">
-        <v>18.4277291662335</v>
+        <v>17.36497765260485</v>
       </c>
       <c r="D105">
-        <v>18.07366666094592</v>
+        <v>17.74226131154744</v>
       </c>
       <c r="E105">
-        <v>17.82888358659779</v>
+        <v>16.41175906174218</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>17.28493693115732</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>18.2263853977598</v>
+        <v>17.82623272761154</v>
       </c>
       <c r="C106">
-        <v>18.45366048620523</v>
+        <v>17.42171985901175</v>
       </c>
       <c r="D106">
-        <v>18.10451200292322</v>
+        <v>17.77424726451849</v>
       </c>
       <c r="E106">
-        <v>17.86981114022549</v>
+        <v>16.46287152272289</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>17.32740464944133</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>18.25336891190487</v>
+        <v>17.86706004053867</v>
       </c>
       <c r="C107">
-        <v>18.47425047006909</v>
+        <v>17.47513864270475</v>
       </c>
       <c r="D107">
-        <v>18.13005264705613</v>
+        <v>17.80093348196231</v>
       </c>
       <c r="E107">
-        <v>17.90563788839844</v>
+        <v>16.51050208477359</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>17.36532906462648</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>18.27502666445683</v>
+        <v>17.90290692295666</v>
       </c>
       <c r="C108">
-        <v>18.48975850056965</v>
+        <v>17.52529694513708</v>
       </c>
       <c r="D108">
-        <v>18.15053635180089</v>
+        <v>17.82255236599231</v>
       </c>
       <c r="E108">
-        <v>17.93656044138556</v>
+        <v>16.55473134893973</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>17.39887477629568</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>18.29161206852256</v>
+        <v>17.93396266896976</v>
       </c>
       <c r="C109">
-        <v>18.5004320138098</v>
+        <v>17.57225826911814</v>
       </c>
       <c r="D109">
-        <v>18.16620029909794</v>
+        <v>17.83932911082787</v>
       </c>
       <c r="E109">
-        <v>17.96277035862411</v>
+        <v>16.59563984846808</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>17.42820268858675</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>18.30336777203325</v>
+        <v>17.96041121285636</v>
       </c>
       <c r="C110">
-        <v>18.50650698317506</v>
+        <v>17.61608644079311</v>
       </c>
       <c r="D110">
-        <v>18.17727131615296</v>
+        <v>17.85148143310501</v>
       </c>
       <c r="E110">
-        <v>17.98445384144315</v>
+        <v>16.63330775191541</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>17.45346970396391</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>18.31052591086854</v>
+        <v>17.98243095953195</v>
       </c>
       <c r="C111">
-        <v>18.50820840730889</v>
+        <v>17.6568452972426</v>
       </c>
       <c r="D111">
-        <v>18.18396611533077</v>
+        <v>17.85921940826266</v>
       </c>
       <c r="E111">
-        <v>18.00179152930602</v>
+        <v>16.6678146239592</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>17.47482850007411</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>18.31330840368403</v>
+        <v>18.00019467931348</v>
       </c>
       <c r="C112">
-        <v>18.50575073032842</v>
+        <v>17.69459846207975</v>
       </c>
       <c r="D112">
-        <v>18.18649169706687</v>
+        <v>17.86274539146816</v>
       </c>
       <c r="E112">
-        <v>18.01495837902911</v>
+        <v>16.69923920461399</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>17.4924273743745</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>18.31192722716836</v>
+        <v>18.01386946484487</v>
       </c>
       <c r="C113">
-        <v>18.49933825545285</v>
+        <v>17.72940925634771</v>
       </c>
       <c r="D113">
-        <v>18.18504571164956</v>
+        <v>17.86225402020109</v>
       </c>
       <c r="E113">
-        <v>18.02412360218723</v>
+        <v>16.7276592542074</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>17.50641014122605</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>18.30658475669145</v>
+        <v>18.02361676790677</v>
       </c>
       <c r="C114">
-        <v>18.48916561065532</v>
+        <v>17.76134031616778</v>
       </c>
       <c r="D114">
-        <v>18.17981685619873</v>
+        <v>17.85793228093458</v>
       </c>
       <c r="E114">
-        <v>18.02945065592794</v>
+        <v>16.75315142271086</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>17.5169160813504</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>18.29747411528028</v>
+        <v>18.02959245107649</v>
       </c>
       <c r="C115">
-        <v>18.47541816795037</v>
+        <v>17.79045385640685</v>
       </c>
       <c r="D115">
-        <v>18.17098524527008</v>
+        <v>17.84995961953928</v>
       </c>
       <c r="E115">
-        <v>18.0310972855718</v>
+        <v>16.77579115058737</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>17.52407993517564</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>18.28477952806679</v>
+        <v>18.03194686529434</v>
       </c>
       <c r="C116">
-        <v>18.45827246453034</v>
+        <v>17.81681146777976</v>
       </c>
       <c r="D116">
-        <v>18.15872275154422</v>
+        <v>17.83850808806809</v>
       </c>
       <c r="E116">
-        <v>18.02921557026723</v>
+        <v>16.79565258247762</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>17.52803192781271</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>18.26867667276502</v>
+        <v>18.03082494834199</v>
       </c>
       <c r="C117">
-        <v>18.43789660329397</v>
+        <v>17.84047400627362</v>
       </c>
       <c r="D117">
-        <v>18.14319333516884</v>
+        <v>17.82374251561603</v>
       </c>
       <c r="E117">
-        <v>18.02395200518367</v>
+        <v>16.81280849961888</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>17.52889781678753</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>18.24933302778688</v>
+        <v>18.02636634375809</v>
       </c>
       <c r="C118">
-        <v>18.41445062893243</v>
+        <v>17.86150150046597</v>
       </c>
       <c r="D118">
-        <v>18.12455339187078</v>
+        <v>17.80582070366717</v>
       </c>
       <c r="E118">
-        <v>18.01544764310493</v>
+        <v>16.82733027120494</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>17.52679895834186</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>18.22690821484199</v>
+        <v>18.01870553372419</v>
       </c>
       <c r="C119">
-        <v>18.38808692617377</v>
+        <v>17.87995308560187</v>
       </c>
       <c r="D119">
-        <v>18.10295210381229</v>
+        <v>17.78489363432356</v>
       </c>
       <c r="E119">
-        <v>18.00383820837504</v>
+        <v>16.83928782030129</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>17.52185239565803</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>18.20155433865582</v>
+        <v>18.0079719794781</v>
       </c>
       <c r="C120">
-        <v>18.35895054994059</v>
+        <v>17.8958869943093</v>
       </c>
       <c r="D120">
-        <v>18.07853172311341</v>
+        <v>17.76110567914079</v>
       </c>
       <c r="E120">
-        <v>17.98925423945598</v>
+        <v>16.8487496006602</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>17.51417094085777</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>18.17341630532419</v>
+        <v>17.99429026897574</v>
       </c>
       <c r="C121">
-        <v>18.32717958871621</v>
+        <v>17.90936054818996</v>
       </c>
       <c r="D121">
-        <v>18.05142793971309</v>
+        <v>17.7345948158588</v>
       </c>
       <c r="E121">
-        <v>17.97182122429648</v>
+        <v>16.8557825821979</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>17.50386327414364</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>18.14263215429968</v>
+        <v>17.97778025815987</v>
       </c>
       <c r="C122">
-        <v>18.29290550161835</v>
+        <v>17.92043012555284</v>
       </c>
       <c r="D122">
-        <v>18.02177010900061</v>
+        <v>17.70549288345338</v>
       </c>
       <c r="E122">
-        <v>17.95165973189065</v>
+        <v>16.86045224392471</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>17.4910340729413</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>18.10933338033722</v>
+        <v>17.95855721741423</v>
       </c>
       <c r="C123">
-        <v>18.25625337299942</v>
+        <v>17.92915112554856</v>
       </c>
       <c r="D123">
-        <v>17.98968156957066</v>
+        <v>17.67392579997493</v>
       </c>
       <c r="E123">
-        <v>17.92888559108377</v>
+        <v>16.86282257387343</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>17.47578410010373</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>18.07364519602642</v>
+        <v>17.93673199567791</v>
       </c>
       <c r="C124">
-        <v>18.21734230364126</v>
+        <v>17.93557796299055</v>
       </c>
       <c r="D124">
-        <v>17.95527992064216</v>
+        <v>17.64001378956844</v>
       </c>
       <c r="E124">
-        <v>17.90361003191524</v>
+        <v>16.86295607884074</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>17.45821035349826</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>18.03568685472485</v>
+        <v>17.9124111587789</v>
       </c>
       <c r="C125">
-        <v>18.17628560035963</v>
+        <v>17.93976406371757</v>
       </c>
       <c r="D125">
-        <v>17.91867724316028</v>
+        <v>17.60387160859659</v>
       </c>
       <c r="E125">
-        <v>17.87593984509704</v>
+        <v>16.86091378254957</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>17.43840616356758</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>17.99557190060093</v>
+        <v>17.88569715029024</v>
       </c>
       <c r="C126">
-        <v>18.13319111986926</v>
+        <v>17.94176182001068</v>
       </c>
       <c r="D126">
-        <v>17.87998040756558</v>
+        <v>17.56560874110027</v>
       </c>
       <c r="E126">
-        <v>17.84597753671933</v>
+        <v>16.85675524482444</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>17.41646130720027</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>17.95340842321781</v>
+        <v>17.85668842730136</v>
       </c>
       <c r="C127">
-        <v>18.0881615136885</v>
+        <v>17.9416226792614</v>
       </c>
       <c r="D127">
-        <v>17.83929128783948</v>
+        <v>17.52532964736615</v>
       </c>
       <c r="E127">
-        <v>17.81382147781477</v>
+        <v>16.85053858024592</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>17.39246211815734</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>17.90929934813951</v>
+        <v>17.82547960882978</v>
       </c>
       <c r="C128">
-        <v>18.04129445140148</v>
+        <v>17.93939699334948</v>
       </c>
       <c r="D128">
-        <v>17.7967069752589</v>
+        <v>17.48313396020264</v>
       </c>
       <c r="E128">
-        <v>17.77956605467983</v>
+        <v>16.84232047255619</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>17.36649162213856</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>17.86334265399186</v>
+        <v>17.79216159637163</v>
       </c>
       <c r="C129">
-        <v>17.99268291637775</v>
+        <v>17.93513417202556</v>
       </c>
       <c r="D129">
-        <v>17.75232004693677</v>
+        <v>17.43911669652856</v>
       </c>
       <c r="E129">
-        <v>17.74330181255257</v>
+        <v>16.83215621123171</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>17.33862963823921</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>17.81563160267153</v>
+        <v>17.7568217316548</v>
       </c>
       <c r="C130">
-        <v>17.94241536504727</v>
+        <v>17.92888262830516</v>
       </c>
       <c r="D130">
-        <v>17.70621871194521</v>
+        <v>17.39336845282286</v>
       </c>
       <c r="E130">
-        <v>17.70511561007823</v>
+        <v>16.82009969587454</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>17.30895289953936</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>17.76625499339553</v>
+        <v>17.71954392254511</v>
       </c>
       <c r="C131">
-        <v>17.89057598948547</v>
+        <v>17.92068980912249</v>
       </c>
       <c r="D131">
-        <v>17.65848706688219</v>
+        <v>17.34597559967881</v>
       </c>
       <c r="E131">
-        <v>17.66509073184069</v>
+        <v>16.80620347748102</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>17.27753515951626</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>17.71529732902276</v>
+        <v>17.68040876871466</v>
       </c>
       <c r="C132">
-        <v>17.83724490853232</v>
+        <v>17.91060216771359</v>
       </c>
       <c r="D132">
-        <v>17.60920525842235</v>
+        <v>17.29702047096986</v>
       </c>
       <c r="E132">
-        <v>17.62330707115935</v>
+        <v>16.79051876513022</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>17.24444729996436</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>17.66283905425873</v>
+        <v>17.63949368903697</v>
       </c>
       <c r="C133">
-        <v>17.78249834449055</v>
+        <v>17.8986652022248</v>
       </c>
       <c r="D133">
-        <v>17.55844966737034</v>
+        <v>17.24658153569833</v>
       </c>
       <c r="E133">
-        <v>17.57984121061524</v>
+        <v>16.77309545701718</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>17.20975743912351</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>17.60895673695866</v>
+        <v>17.59687304561796</v>
       </c>
       <c r="C134">
-        <v>17.7264088552248</v>
+        <v>17.88492346185168</v>
       </c>
       <c r="D134">
-        <v>17.50629311293584</v>
+        <v>17.1947335620629</v>
       </c>
       <c r="E134">
-        <v>17.53476661111297</v>
+        <v>16.75398217624725</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>17.17353102868693</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>17.5537232430573</v>
+        <v>17.55261825247902</v>
       </c>
       <c r="C135">
-        <v>17.66904546247235</v>
+        <v>17.86942051703479</v>
       </c>
       <c r="D135">
-        <v>17.45280497699743</v>
+        <v>17.14154783127278</v>
       </c>
       <c r="E135">
-        <v>17.48815366342156</v>
+        <v>16.73322628583592</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>17.13583094844518</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>17.49720793771837</v>
+        <v>17.5067978950526</v>
       </c>
       <c r="C136">
-        <v>17.61047385618183</v>
+        <v>17.85219904695876</v>
       </c>
       <c r="D136">
-        <v>17.39805139611027</v>
+        <v>17.08709220333823</v>
       </c>
       <c r="E136">
-        <v>17.44006988534392</v>
+        <v>16.71087392512157</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>17.09671762870823</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>17.43947683059442</v>
+        <v>17.45947783602462</v>
       </c>
       <c r="C137">
-        <v>17.5507565471871</v>
+        <v>17.83330077642197</v>
       </c>
       <c r="D137">
-        <v>17.34209540014355</v>
+        <v>17.03143142699004</v>
       </c>
       <c r="E137">
-        <v>17.39057996005881</v>
+        <v>16.68697003168617</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>17.05624909016808</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>17.38059273892032</v>
+        <v>17.4107213105116</v>
       </c>
       <c r="C138">
-        <v>17.48995300213726</v>
+        <v>17.81276653978877</v>
       </c>
       <c r="D138">
-        <v>17.28499704760226</v>
+        <v>16.97462708018494</v>
       </c>
       <c r="E138">
-        <v>17.33974591935611</v>
+        <v>16.66155837071813</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>17.01448111163252</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>17.32061546105345</v>
+        <v>17.36058907174604</v>
       </c>
       <c r="C139">
-        <v>17.42811982851086</v>
+        <v>17.79063628187006</v>
       </c>
       <c r="D139">
-        <v>17.2268135918751</v>
+        <v>16.91673793593111</v>
       </c>
       <c r="E139">
-        <v>17.28762718548153</v>
+        <v>16.63468156069709</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>16.97146725013369</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>17.25960189179157</v>
+        <v>17.309139395208</v>
       </c>
       <c r="C140">
-        <v>17.3653108699459</v>
+        <v>17.76694906682975</v>
       </c>
       <c r="D140">
-        <v>17.16759958279901</v>
+        <v>16.8578198891434</v>
       </c>
       <c r="E140">
-        <v>17.23428073693029</v>
+        <v>16.60638110098894</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>16.92725895053575</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>17.19760618067944</v>
+        <v>17.25642832241581</v>
       </c>
       <c r="C141">
-        <v>17.30157736996816</v>
+        <v>17.74174309759248</v>
       </c>
       <c r="D141">
-        <v>17.10740701120906</v>
+        <v>16.79792623578</v>
       </c>
       <c r="E141">
-        <v>17.1797611607026</v>
+        <v>16.57669739788568</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>16.88190565396178</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>17.13467986477757</v>
+        <v>17.20250960031997</v>
       </c>
       <c r="C142">
-        <v>17.23696808857433</v>
+        <v>17.71505574593191</v>
       </c>
       <c r="D142">
-        <v>17.04628543017655</v>
+        <v>16.73710770518548</v>
       </c>
       <c r="E142">
-        <v>17.12412078979461</v>
+        <v>16.54566978991266</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>16.83545479646375</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>17.07087197932185</v>
+        <v>17.14743484911345</v>
       </c>
       <c r="C143">
-        <v>17.1715294103285</v>
+        <v>17.68692354237047</v>
       </c>
       <c r="D143">
-        <v>16.98428205156239</v>
+        <v>16.67541262192707</v>
       </c>
       <c r="E143">
-        <v>17.06740975329463</v>
+        <v>16.51333657682017</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>16.78795199706672</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>17.00622919734391</v>
+        <v>17.09125366781938</v>
       </c>
       <c r="C144">
-        <v>17.10530548749335</v>
+        <v>17.65738221186422</v>
       </c>
       <c r="D144">
-        <v>16.92144188090404</v>
+        <v>16.61288700696887</v>
       </c>
       <c r="E144">
-        <v>17.00967611013845</v>
+        <v>16.47973504197702</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>16.7394410054903</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>16.94079593069811</v>
+        <v>17.03401359494282</v>
       </c>
       <c r="C145">
-        <v>17.03833831581066</v>
+        <v>17.62646668011589</v>
       </c>
       <c r="D145">
-        <v>16.85780779804243</v>
+        <v>16.54957467880137</v>
       </c>
       <c r="E145">
-        <v>16.95096589169535</v>
+        <v>16.44490147278194</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>16.68996389382758</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>16.87461443747787</v>
+        <v>16.97576036269807</v>
       </c>
       <c r="C146">
-        <v>16.97066786180876</v>
+        <v>17.59421108720833</v>
       </c>
       <c r="D146">
-        <v>16.79342066525259</v>
+        <v>16.48551738393021</v>
       </c>
       <c r="E146">
-        <v>16.89132322323931</v>
+        <v>16.40887120152966</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>16.6395610163709</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>16.80772494089019</v>
+        <v>16.91653778439992</v>
       </c>
       <c r="C147">
-        <v>16.90233215380966</v>
+        <v>17.56064880513085</v>
       </c>
       <c r="D147">
-        <v>16.72831943127498</v>
+        <v>16.42075486357924</v>
       </c>
       <c r="E147">
-        <v>16.83079036952515</v>
+        <v>16.3716786106728</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>16.58827116252642</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>16.74016570932272</v>
+        <v>16.85638799285922</v>
       </c>
       <c r="C148">
-        <v>16.83336736610056</v>
+        <v>17.52581245348138</v>
       </c>
       <c r="D148">
-        <v>16.66254120114269</v>
+        <v>16.35532498651932</v>
       </c>
       <c r="E148">
-        <v>16.76940783936768</v>
+        <v>16.33335717074121</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>16.53613156678141</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>16.67197315824301</v>
+        <v>16.79535139379892</v>
       </c>
       <c r="C149">
-        <v>16.76380793110673</v>
+        <v>17.48973391004516</v>
       </c>
       <c r="D149">
-        <v>16.59612134320814</v>
+        <v>16.2892637788147</v>
       </c>
       <c r="E149">
-        <v>16.70721443630307</v>
+        <v>16.29393946433369</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>16.48317798911213</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>16.60318194746652</v>
+        <v>16.73346678367159</v>
       </c>
       <c r="C150">
-        <v>16.69368659799471</v>
+        <v>17.45244432997278</v>
       </c>
       <c r="D150">
-        <v>16.52909355744779</v>
+        <v>16.2226055862495</v>
       </c>
       <c r="E150">
-        <v>16.64424734607737</v>
+        <v>16.25345718478793</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>16.42944478250367</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>16.53382504984106</v>
+        <v>16.6707714256687</v>
       </c>
       <c r="C151">
-        <v>16.62303453268925</v>
+        <v>17.41397416109067</v>
       </c>
       <c r="D151">
-        <v>16.46148995399037</v>
+        <v>16.1553830589085</v>
       </c>
       <c r="E151">
-        <v>16.58054219122201</v>
+        <v>16.21194119828884</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>16.37496490665281</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>16.46393384658991</v>
+        <v>16.60730106183937</v>
       </c>
       <c r="C152">
-        <v>16.5518813885265</v>
+        <v>17.3743531554097</v>
       </c>
       <c r="D152">
-        <v>16.39334114117764</v>
+        <v>16.08762733219579</v>
       </c>
       <c r="E152">
-        <v>16.51613310410336</v>
+        <v>16.16942153404676</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>16.31977005125714</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>16.39353819661112</v>
+        <v>16.54309005339164</v>
       </c>
       <c r="C153">
-        <v>16.48025537234917</v>
+        <v>17.3336103852469</v>
       </c>
       <c r="D153">
-        <v>16.32467627632793</v>
+        <v>16.01936800439486</v>
       </c>
       <c r="E153">
-        <v>16.45105278441838</v>
+        <v>16.12592741010704</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>16.26389060177198</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>16.32266649428668</v>
+        <v>16.47817132181488</v>
       </c>
       <c r="C154">
-        <v>16.40818333195906</v>
+        <v>17.29177425810815</v>
       </c>
       <c r="D154">
-        <v>16.25552314995386</v>
+        <v>15.95063329674514</v>
       </c>
       <c r="E154">
-        <v>16.38533255904916</v>
+        <v>16.08148727598778</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>16.20735577966104</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>16.25134579456636</v>
+        <v>16.41257653437324</v>
       </c>
       <c r="C155">
-        <v>16.33569080169912</v>
+        <v>17.24887253106778</v>
       </c>
       <c r="D155">
-        <v>16.18590824143871</v>
+        <v>15.88145004756741</v>
       </c>
       <c r="E155">
-        <v>16.31900244291126</v>
+        <v>16.03612879573319</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>16.15019360326725</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>16.17960179803706</v>
+        <v>16.34633604604991</v>
       </c>
       <c r="C156">
-        <v>16.26280208079474</v>
+        <v>17.20493232220736</v>
       </c>
       <c r="D156">
-        <v>16.11585676490104</v>
+        <v>15.8118438473586</v>
       </c>
       <c r="E156">
-        <v>16.25209118588011</v>
+        <v>15.98987890437266</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>16.0924310080289</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>16.10745900452324</v>
+        <v>16.27947900042811</v>
       </c>
       <c r="C157">
-        <v>16.18954028810612</v>
+        <v>17.15998012990954</v>
       </c>
       <c r="D157">
-        <v>16.04539277742983</v>
+        <v>15.74183901463527</v>
       </c>
       <c r="E157">
-        <v>16.18462633743086</v>
+        <v>15.9427638108628</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>16.03409384087359</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>16.03494073381378</v>
+        <v>16.21203338911668</v>
       </c>
       <c r="C158">
-        <v>16.11592741401123</v>
+        <v>17.11404183785987</v>
       </c>
       <c r="D158">
-        <v>15.97453917998192</v>
+        <v>15.67145875046618</v>
       </c>
       <c r="E158">
-        <v>16.11663428079748</v>
+        <v>15.8948090098558</v>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>15.97520692198665</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>15.96206910454509</v>
+        <v>16.14402604824319</v>
       </c>
       <c r="C159">
-        <v>16.04198438358326</v>
+        <v>17.06714273826217</v>
       </c>
       <c r="D159">
-        <v>15.90331779891366</v>
+        <v>15.60072509794311</v>
       </c>
       <c r="E159">
-        <v>16.04814030163758</v>
+        <v>15.84603932331709</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>15.91579409385446</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>15.88886527645452</v>
+        <v>16.07548277415986</v>
       </c>
       <c r="C160">
-        <v>15.96773109041034</v>
+        <v>17.01930753660192</v>
       </c>
       <c r="D160">
-        <v>15.83174948649962</v>
+        <v>15.529659084083</v>
       </c>
       <c r="E160">
-        <v>15.97916860985775</v>
+        <v>15.79647889322158</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>15.85587823164369</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>15.81534925531659</v>
+        <v>16.00642829498795</v>
       </c>
       <c r="C161">
-        <v>15.89318649617607</v>
+        <v>16.9705603674581</v>
       </c>
       <c r="D161">
-        <v>15.75985399931864</v>
+        <v>15.45828068949585</v>
       </c>
       <c r="E161">
-        <v>15.90974241218361</v>
+        <v>15.74615121246222</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>15.79548132516548</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>15.74154017766965</v>
+        <v>15.93688638211256</v>
       </c>
       <c r="C162">
-        <v>15.81836858294844</v>
+        <v>16.92092480956412</v>
       </c>
       <c r="D162">
-        <v>15.68765028818497</v>
+        <v>15.38660896484317</v>
       </c>
       <c r="E162">
-        <v>15.83988392332054</v>
+        <v>15.69507915028433</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>15.73462445956052</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>15.66745620214143</v>
+        <v>15.86687982657238</v>
       </c>
       <c r="C163">
-        <v>15.74329452889251</v>
+        <v>16.87042389101092</v>
       </c>
       <c r="D163">
-        <v>15.61515633393162</v>
+        <v>15.31466202471979</v>
       </c>
       <c r="E163">
-        <v>15.76961444005383</v>
+        <v>15.6432849392525</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>15.67332791165284</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>15.59311460131053</v>
+        <v>15.79643051212336</v>
       </c>
       <c r="C164">
-        <v>15.66798066127834</v>
+        <v>16.81908011128344</v>
       </c>
       <c r="D164">
-        <v>15.54238927275029</v>
+        <v>15.2424571280996</v>
       </c>
       <c r="E164">
-        <v>15.69895434670313</v>
+        <v>15.59079023074319</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>15.61161112049837</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>15.5185318387292</v>
+        <v>15.72555945603823</v>
       </c>
       <c r="C165">
-        <v>15.59244245166126</v>
+        <v>16.76691544237267</v>
       </c>
       <c r="D165">
-        <v>15.46936547242043</v>
+        <v>15.17001069659916</v>
       </c>
       <c r="E165">
-        <v>15.62792318510401</v>
+        <v>15.53761608414066</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>15.54949277642872</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>15.44372353640666</v>
+        <v>15.65428680497958</v>
       </c>
       <c r="C166">
-        <v>15.516694725393</v>
+        <v>16.71395135053844</v>
       </c>
       <c r="D166">
-        <v>15.39610046485889</v>
+        <v>15.0973383674902</v>
       </c>
       <c r="E166">
-        <v>15.55653965964104</v>
+        <v>15.48378298273239</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>15.48699081118183</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>15.36870460584378</v>
+        <v>15.5826319298816</v>
       </c>
       <c r="C167">
-        <v>15.44075147721176</v>
+        <v>16.66020880106837</v>
       </c>
       <c r="D167">
-        <v>15.32260910632948</v>
+        <v>15.02445502734967</v>
       </c>
       <c r="E167">
-        <v>15.48482170108723</v>
+        <v>15.42931087018803</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>15.42412244460034</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>15.29348919758961</v>
+        <v>15.51061338564661</v>
       </c>
       <c r="C168">
-        <v>15.36462608947946</v>
+        <v>16.60570827152845</v>
       </c>
       <c r="D168">
-        <v>15.24890551302961</v>
+        <v>14.95137484401281</v>
       </c>
       <c r="E168">
-        <v>15.41278647163827</v>
+        <v>15.37421913712951</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>15.36090421747061</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>15.2180908086434</v>
+        <v>15.43824901387482</v>
       </c>
       <c r="C169">
-        <v>15.28833128015649</v>
+        <v>16.55046976545312</v>
       </c>
       <c r="D169">
-        <v>15.1750031471269</v>
+        <v>14.87811131195557</v>
       </c>
       <c r="E169">
-        <v>15.34045042315124</v>
+        <v>15.31852665778145</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>15.29735199911398</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>15.14252227444296</v>
+        <v>15.3655559186797</v>
       </c>
       <c r="C170">
-        <v>15.21187911045565</v>
+        <v>16.49451281700619</v>
       </c>
       <c r="D170">
-        <v>15.10091484935913</v>
+        <v>14.80467726733167</v>
       </c>
       <c r="E170">
-        <v>15.26782930214819</v>
+        <v>15.26225179799633</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>15.23348104409928</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>15.06679578690448</v>
+        <v>15.29255052138001</v>
       </c>
       <c r="C171">
-        <v>15.13528110280931</v>
+        <v>16.43785651045535</v>
       </c>
       <c r="D171">
-        <v>15.02665282630808</v>
+        <v>14.73108494150418</v>
       </c>
       <c r="E171">
-        <v>15.19493820280705</v>
+        <v>15.20541241432361</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>15.16930597973826</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>14.99092298812632</v>
+        <v>15.21924858980172</v>
       </c>
       <c r="C172">
-        <v>15.05854817307165</v>
+        <v>16.38051948003503</v>
       </c>
       <c r="D172">
-        <v>14.95222875184693</v>
+        <v>14.65734596455853</v>
       </c>
       <c r="E172">
-        <v>15.12179157218579</v>
+        <v>15.14802589468244</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>15.10484087224511</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>14.9149148921539</v>
+        <v>15.14566524114126</v>
       </c>
       <c r="C173">
-        <v>14.98169073412428</v>
+        <v>16.32251993016036</v>
       </c>
       <c r="D173">
-        <v>14.87765370698011</v>
+        <v>14.58347142187435</v>
       </c>
       <c r="E173">
-        <v>15.04840325808309</v>
+        <v>15.09010914770847</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>15.04009920620269</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>14.83878202727394</v>
+        <v>15.07181500717427</v>
       </c>
       <c r="C174">
-        <v>14.90471869054892</v>
+        <v>16.26387563877863</v>
       </c>
       <c r="D174">
-        <v>14.80293827451305</v>
+        <v>14.5094718512795</v>
       </c>
       <c r="E174">
-        <v>14.97478651481721</v>
+        <v>15.03167862251225</v>
       </c>
       <c r="F174">
-        <v>0</v>
+        <v>14.97509394811536</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>14.76253439077639</v>
+        <v>14.99771180844812</v>
       </c>
       <c r="C175">
-        <v>14.82764144523375</v>
+        <v>16.20460396799615</v>
       </c>
       <c r="D175">
-        <v>14.72809253991085</v>
+        <v>14.43535729919056</v>
       </c>
       <c r="E175">
-        <v>14.90095404607436</v>
+        <v>14.97275033228386</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>14.90983753704631</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>14.68618150116322</v>
+        <v>14.92336903034263</v>
       </c>
       <c r="C176">
-        <v>14.75046798151586</v>
+        <v>16.1447218778214</v>
       </c>
       <c r="D176">
-        <v>14.65312607071303</v>
+        <v>14.36113731403011</v>
       </c>
       <c r="E176">
-        <v>14.82691801142023</v>
+        <v>14.91333984106708</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>14.84434191929333</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>14.60973242028263</v>
+        <v>14.84879950285758</v>
       </c>
       <c r="C177">
-        <v>14.67320679836429</v>
+        <v>16.08424592806451</v>
       </c>
       <c r="D177">
-        <v>14.57804802448906</v>
+        <v>14.28682100069412</v>
       </c>
       <c r="E177">
-        <v>14.75269006082964</v>
+        <v>14.85346230472766</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>14.77861856968053</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>14.53319574554242</v>
+        <v>14.77401554387174</v>
       </c>
       <c r="C178">
-        <v>14.59586601125192</v>
+        <v>16.02319229656019</v>
       </c>
       <c r="D178">
-        <v>14.50286710230882</v>
+        <v>14.21241701126671</v>
       </c>
       <c r="E178">
-        <v>14.67828134083568</v>
+        <v>14.7931324640199</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>14.71267849764592</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>14.45657969017447</v>
+        <v>14.69902898053274</v>
       </c>
       <c r="C179">
-        <v>14.51845333943478</v>
+        <v>15.96157677909769</v>
       </c>
       <c r="D179">
-        <v>14.42759160823713</v>
+        <v>14.13793359732758</v>
       </c>
       <c r="E179">
-        <v>14.6037025488741</v>
+        <v>14.73236465326103</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>14.64653228626383</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>14.3798920374762</v>
+        <v>14.6238511499009</v>
       </c>
       <c r="C180">
-        <v>14.44097609844566</v>
+        <v>15.89941480565678</v>
       </c>
       <c r="D180">
-        <v>14.35222944985677</v>
+        <v>14.06337859905482</v>
       </c>
       <c r="E180">
-        <v>14.52896391684499</v>
+        <v>14.67117282905711</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>14.58019008380314</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>14.30314021929949</v>
+        <v>14.54849294980203</v>
       </c>
       <c r="C181">
-        <v>14.36344128092741</v>
+        <v>15.83672144266778</v>
       </c>
       <c r="D181">
-        <v>14.27678814218928</v>
+        <v>13.98875949448157</v>
       </c>
       <c r="E181">
-        <v>14.45407523055789</v>
+        <v>14.60957056019348</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>14.51366164947918</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>14.22633129446931</v>
+        <v>14.47296481871371</v>
       </c>
       <c r="C182">
-        <v>14.2858555067938</v>
+        <v>15.77351140310154</v>
       </c>
       <c r="D182">
-        <v>14.20127487392072</v>
+        <v>13.91408338843627</v>
       </c>
       <c r="E182">
-        <v>14.37904591280737</v>
+        <v>14.54757105068562</v>
       </c>
       <c r="F182">
-        <v>0</v>
+        <v>14.44695633932284</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>14.14947197225838</v>
+        <v>14.39727679238711</v>
       </c>
       <c r="C183">
-        <v>14.20822508795854</v>
+        <v>15.70979906352565</v>
       </c>
       <c r="D183">
-        <v>14.12569646373931</v>
+        <v>13.83935705743103</v>
       </c>
       <c r="E183">
-        <v>14.30388494798237</v>
+        <v>14.48518715018925</v>
       </c>
       <c r="F183">
-        <v>0</v>
+        <v>14.3800831504794</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>14.07256865361854</v>
+        <v>14.32143848972458</v>
       </c>
       <c r="C184">
-        <v>14.13055602907905</v>
+        <v>15.64559846649315</v>
       </c>
       <c r="D184">
-        <v>14.05005943150996</v>
+        <v>13.76458694133673</v>
       </c>
       <c r="E184">
-        <v>14.22860092194366</v>
+        <v>14.42243134907455</v>
       </c>
       <c r="F184">
-        <v>0</v>
+        <v>14.31305071413486</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>13.99562740639729</v>
+        <v>14.24545914511637</v>
       </c>
       <c r="C185">
-        <v>14.0528540243146</v>
+        <v>15.5809233015508</v>
       </c>
       <c r="D185">
-        <v>13.97436997917743</v>
+        <v>13.68977917979199</v>
       </c>
       <c r="E185">
-        <v>14.15320212194054</v>
+        <v>14.35931580972202</v>
       </c>
       <c r="F185">
-        <v>0</v>
+        <v>14.24586732055866</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>13.91865402546372</v>
+        <v>14.16934762384835</v>
       </c>
       <c r="C186">
-        <v>13.97512451158513</v>
+        <v>15.51578697070085</v>
       </c>
       <c r="D186">
-        <v>13.8986340032655</v>
+        <v>13.61493961113597</v>
       </c>
       <c r="E186">
-        <v>14.07769643425608</v>
+        <v>14.2958523590037</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>14.17854093283531</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>13.84165400748809</v>
+        <v>14.0931124237137</v>
       </c>
       <c r="C187">
-        <v>13.89737264208783</v>
+        <v>15.45020255912448</v>
       </c>
       <c r="D187">
-        <v>13.8228571417168</v>
+        <v>13.54007379779643</v>
       </c>
       <c r="E187">
-        <v>14.00209140376229</v>
+        <v>14.23205249971162</v>
       </c>
       <c r="F187">
-        <v>0</v>
+        <v>14.11107919189933</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>13.76463258976941</v>
+        <v>14.01676171241577</v>
       </c>
       <c r="C188">
-        <v>13.81960332625172</v>
+        <v>15.38418283291212</v>
       </c>
       <c r="D188">
-        <v>13.74704474017847</v>
+        <v>13.46518703302623</v>
       </c>
       <c r="E188">
-        <v>13.92639429851983</v>
+        <v>14.16792743008599</v>
       </c>
       <c r="F188">
-        <v>0</v>
+        <v>14.04348944310923</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>13.68759475719602</v>
+        <v>13.94030331250956</v>
       </c>
       <c r="C189">
-        <v>13.74182123669284</v>
+        <v>15.31774025031176</v>
       </c>
       <c r="D189">
-        <v>13.67120191109929</v>
+        <v>13.39028435691504</v>
       </c>
       <c r="E189">
-        <v>13.85061204218835</v>
+        <v>14.10348803415184</v>
       </c>
       <c r="F189">
-        <v>0</v>
+        <v>13.97577873067297</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>13.61054524251167</v>
+        <v>13.86374474451104</v>
       </c>
       <c r="C190">
-        <v>13.6640308006213</v>
+        <v>15.25088701021464</v>
       </c>
       <c r="D190">
-        <v>13.59533351460881</v>
+        <v>13.31537056862109</v>
       </c>
       <c r="E190">
-        <v>13.77475126719411</v>
+        <v>14.03874490762787</v>
       </c>
       <c r="F190">
-        <v>0</v>
+        <v>13.90795382925815</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>13.53348856365619</v>
+        <v>13.7870932154224</v>
       </c>
       <c r="C191">
-        <v>13.58623624956813</v>
+        <v>15.18363502084941</v>
       </c>
       <c r="D191">
-        <v>13.51944417482665</v>
+        <v>13.24045023551201</v>
       </c>
       <c r="E191">
-        <v>13.69881834637861</v>
+        <v>13.97370835736227</v>
       </c>
       <c r="F191">
-        <v>0</v>
+        <v>13.84002123426395</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>13.45642900152677</v>
+        <v>13.71035564371193</v>
       </c>
       <c r="C192">
-        <v>13.50844158927333</v>
+        <v>15.11599587428792</v>
       </c>
       <c r="D192">
-        <v>13.44353830893887</v>
+        <v>13.1655277048082</v>
       </c>
       <c r="E192">
-        <v>13.62281935687243</v>
+        <v>13.90838840379461</v>
       </c>
       <c r="F192">
-        <v>0</v>
+        <v>13.7719871925837</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>13.37937064518879</v>
+        <v>13.63353867048866</v>
       </c>
       <c r="C193">
-        <v>13.43065063699174</v>
+        <v>15.04798093370694</v>
       </c>
       <c r="D193">
-        <v>13.36762010640496</v>
+        <v>13.09060711089349</v>
       </c>
       <c r="E193">
-        <v>13.54676012584221</v>
+        <v>13.84279480329217</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>13.70385769744557</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>13.3023173766567</v>
+        <v>13.55664866088416</v>
       </c>
       <c r="C194">
-        <v>13.35286702566933</v>
+        <v>14.97960128897979</v>
       </c>
       <c r="D194">
-        <v>13.29169357342899</v>
+        <v>13.0156924054732</v>
       </c>
       <c r="E194">
-        <v>13.47064624741189</v>
+        <v>13.77693704111523</v>
       </c>
       <c r="F194">
-        <v>0</v>
+        <v>13.63563850637105</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>13.22527288903196</v>
+        <v>13.47969173201165</v>
       </c>
       <c r="C195">
-        <v>13.27509419586853</v>
+        <v>14.91086776420148</v>
       </c>
       <c r="D195">
-        <v>13.21576251672051</v>
+        <v>12.94078734259891</v>
       </c>
       <c r="E195">
-        <v>13.39448305710721</v>
+        <v>13.71082434520941</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>13.56733514999376</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>13.14824070306508</v>
+        <v>13.40267374195015</v>
       </c>
       <c r="C196">
-        <v>13.19733543483525</v>
+        <v>14.84179092121048</v>
       </c>
       <c r="D196">
-        <v>13.13983055975936</v>
+        <v>12.86589548110714</v>
       </c>
       <c r="E196">
-        <v>13.31827567756114</v>
+        <v>13.64446569677427</v>
       </c>
       <c r="F196">
-        <v>0</v>
+        <v>13.4989529361698</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>13.07122415753603</v>
+        <v>13.32560032180848</v>
       </c>
       <c r="C197">
-        <v>13.11959385536158</v>
+        <v>14.7723810965138</v>
       </c>
       <c r="D197">
-        <v>13.0639011620914</v>
+        <v>12.79102025117411</v>
       </c>
       <c r="E197">
-        <v>13.24202902570021</v>
+        <v>13.57786982443069</v>
       </c>
       <c r="F197">
-        <v>0</v>
+        <v>13.43049696638947</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>12.99422644155019</v>
+        <v>13.24847686726155</v>
       </c>
       <c r="C198">
-        <v>13.04187242168855</v>
+        <v>14.70264838140031</v>
       </c>
       <c r="D198">
-        <v>12.98797760429295</v>
+        <v>12.71616490598001</v>
       </c>
       <c r="E198">
-        <v>13.16574777853489</v>
+        <v>13.51104522721649</v>
       </c>
       <c r="F198">
-        <v>0</v>
+        <v>13.36197212862514</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>12.91725057865122</v>
+        <v>13.17130855750723</v>
       </c>
       <c r="C199">
-        <v>12.96417395495504</v>
+        <v>14.6326026153926</v>
       </c>
       <c r="D199">
-        <v>12.91206302364084</v>
+        <v>12.64133249296243</v>
       </c>
       <c r="E199">
-        <v>13.08943643728741</v>
+        <v>13.44400016976283</v>
       </c>
       <c r="F199">
-        <v>0</v>
+        <v>13.293383132943</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>12.84029945284888</v>
+        <v>13.09410036329992</v>
       </c>
       <c r="C200">
-        <v>12.8865011267572</v>
+        <v>14.5622534261188</v>
       </c>
       <c r="D200">
-        <v>12.8361603991946</v>
+        <v>12.56652598638045</v>
       </c>
       <c r="E200">
-        <v>13.01309931917663</v>
+        <v>13.37674268863676</v>
       </c>
       <c r="F200">
-        <v>0</v>
+        <v>13.22473450680461</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>12.76337580693183</v>
+        <v>13.01685704829547</v>
       </c>
       <c r="C201">
-        <v>12.8088564888691</v>
+        <v>14.49161021757136</v>
       </c>
       <c r="D201">
-        <v>12.76027256783501</v>
+        <v>12.4917482016809</v>
       </c>
       <c r="E201">
-        <v>12.93674052199045</v>
+        <v>13.30928060769559</v>
       </c>
       <c r="F201">
-        <v>0</v>
+        <v>13.15603056726766</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>12.6864822467036</v>
+        <v>12.93958318990469</v>
       </c>
       <c r="C202">
-        <v>12.73124245753748</v>
+        <v>14.42068217143819</v>
       </c>
       <c r="D202">
-        <v>12.68440223594638</v>
+        <v>12.41700176826818</v>
       </c>
       <c r="E202">
-        <v>12.86036399596707</v>
+        <v>13.24162153150838</v>
       </c>
       <c r="F202">
-        <v>0</v>
+        <v>13.08727549453394</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>12.60962125922444</v>
+        <v>12.86228317101136</v>
       </c>
       <c r="C203">
-        <v>12.65366133278803</v>
+        <v>14.34947824765923</v>
       </c>
       <c r="D203">
-        <v>12.6085519703645</v>
+        <v>12.34228925045871</v>
       </c>
       <c r="E203">
-        <v>12.78397352222317</v>
+        <v>13.1737728610613</v>
       </c>
       <c r="F203">
-        <v>0</v>
+        <v>13.01847331113305</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>12.53279520203254</v>
+        <v>12.78496120416728</v>
       </c>
       <c r="C204">
-        <v>12.57611530388652</v>
+        <v>14.27800721564257</v>
       </c>
       <c r="D204">
-        <v>12.53272422487247</v>
+        <v>12.26761307816021</v>
       </c>
       <c r="E204">
-        <v>12.70757269934591</v>
+        <v>13.10574179663362</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>12.94962785891708</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>12.45600632738632</v>
+        <v>12.70762132504503</v>
       </c>
       <c r="C205">
-        <v>12.49860644264982</v>
+        <v>14.20627763938175</v>
       </c>
       <c r="D205">
-        <v>12.45692132823462</v>
+        <v>12.19297553388303</v>
       </c>
       <c r="E205">
-        <v>12.6311649910586</v>
+        <v>13.03753533704785</v>
       </c>
       <c r="F205">
-        <v>0</v>
+        <v>12.88074280768897</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>12.37925677314051</v>
+        <v>12.63026740692745</v>
       </c>
       <c r="C206">
-        <v>12.42113672817413</v>
+        <v>14.13429786818501</v>
       </c>
       <c r="D206">
-        <v>12.38114549918432</v>
+        <v>12.11837882640365</v>
       </c>
       <c r="E206">
-        <v>12.554753710739</v>
+        <v>12.96916029656028</v>
       </c>
       <c r="F206">
-        <v>0</v>
+        <v>12.81182173557959</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>12.30254857521753</v>
+        <v>12.55290316393729</v>
       </c>
       <c r="C207">
-        <v>12.34370803390243</v>
+        <v>14.06207607242294</v>
       </c>
       <c r="D207">
-        <v>12.30539885243727</v>
+        <v>12.04382505401747</v>
       </c>
       <c r="E207">
-        <v>12.47834201964813</v>
+        <v>12.90062329684889</v>
       </c>
       <c r="F207">
-        <v>0</v>
+        <v>12.74286806703979</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>12.22588367372244</v>
+        <v>12.47553215249426</v>
       </c>
       <c r="C208">
-        <v>12.26632214212359</v>
+        <v>13.98962023733449</v>
       </c>
       <c r="D208">
-        <v>12.22968339395545</v>
+        <v>11.96931619983907</v>
       </c>
       <c r="E208">
-        <v>12.40193295819844</v>
+        <v>12.83193077904201</v>
       </c>
       <c r="F208">
-        <v>0</v>
+        <v>12.67388503818861</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>12.14926391005621</v>
+        <v>12.39815779633515</v>
       </c>
       <c r="C209">
-        <v>12.18898074929966</v>
+        <v>13.91693815914246</v>
       </c>
       <c r="D209">
-        <v>12.15400104080506</v>
+        <v>11.8948541676512</v>
       </c>
       <c r="E209">
-        <v>12.32552943643247</v>
+        <v>12.76308901660515</v>
       </c>
       <c r="F209">
-        <v>0</v>
+        <v>12.60487581991223</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>12.07269104356059</v>
+        <v>12.32078338256468</v>
       </c>
       <c r="C210">
-        <v>12.11168546022601</v>
+        <v>13.844037439862</v>
       </c>
       <c r="D210">
-        <v>12.07835361099056</v>
+        <v>11.82044077648773</v>
       </c>
       <c r="E210">
-        <v>12.24913421836039</v>
+        <v>12.694104113637</v>
       </c>
       <c r="F210">
-        <v>0</v>
+        <v>12.53584344369571</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>11.99616673555555</v>
+        <v>12.24341203186023</v>
       </c>
       <c r="C211">
-        <v>12.03443780728228</v>
+        <v>13.770925527982</v>
       </c>
       <c r="D211">
-        <v>12.00274283757495</v>
+        <v>11.7460777497247</v>
       </c>
       <c r="E211">
-        <v>12.17274997427807</v>
+        <v>12.62498199007789</v>
       </c>
       <c r="F211">
-        <v>0</v>
+        <v>12.46679080497394</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>11.91969258029456</v>
+        <v>12.16604677486636</v>
       </c>
       <c r="C212">
-        <v>11.95723924096282</v>
+        <v>13.697609695552</v>
       </c>
       <c r="D212">
-        <v>11.92717037068344</v>
+        <v>11.67176673574598</v>
       </c>
       <c r="E212">
-        <v>12.09637925477698</v>
+        <v>12.55572841267808</v>
       </c>
       <c r="F212">
-        <v>0</v>
+        <v>12.39772069084263</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>11.84327009716571</v>
+        <v>12.08869051882125</v>
       </c>
       <c r="C213">
-        <v>11.88009114034437</v>
+        <v>13.62409703743964</v>
       </c>
       <c r="D213">
-        <v>11.85163777567647</v>
+        <v>11.59750931703104</v>
       </c>
       <c r="E213">
-        <v>12.02002448506618</v>
+        <v>12.48634900774924</v>
       </c>
       <c r="F213">
-        <v>0</v>
+        <v>12.32863579302411</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>11.76690072731428</v>
+        <v>12.01134603670013</v>
       </c>
       <c r="C214">
-        <v>11.80299481797646</v>
+        <v>13.5503944920862</v>
       </c>
       <c r="D214">
-        <v>11.77614654797477</v>
+        <v>11.52330699025275</v>
       </c>
       <c r="E214">
-        <v>11.94368800507161</v>
+        <v>12.4168492473522</v>
       </c>
       <c r="F214">
-        <v>0</v>
+        <v>12.25953869098139</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>11.69058583042262</v>
+        <v>11.93401596193648</v>
       </c>
       <c r="C215">
-        <v>11.72595151493068</v>
+        <v>13.47650884364368</v>
       </c>
       <c r="D215">
-        <v>11.70069810453229</v>
+        <v>11.44916117820877</v>
       </c>
       <c r="E215">
-        <v>11.867372049095</v>
+        <v>12.34723441942752</v>
       </c>
       <c r="F215">
-        <v>0</v>
+        <v>12.19043184914346</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>11.6143267315339</v>
+        <v>11.85670287216927</v>
       </c>
       <c r="C216">
-        <v>11.64896241596995</v>
+        <v>13.40244671876454</v>
       </c>
       <c r="D216">
-        <v>11.62529379682739</v>
+        <v>11.37507325724328</v>
       </c>
       <c r="E216">
-        <v>11.7910787424294</v>
+        <v>12.27750968669986</v>
       </c>
       <c r="F216">
-        <v>0</v>
+        <v>12.12131765821276</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>11.53812469145566</v>
+        <v>11.77940922824894</v>
       </c>
       <c r="C217">
-        <v>11.57202863832856</v>
+        <v>13.32821458462423</v>
       </c>
       <c r="D217">
-        <v>11.54993490815856</v>
+        <v>11.30104453151078</v>
       </c>
       <c r="E217">
-        <v>11.71481013394213</v>
+        <v>12.20768009075918</v>
       </c>
       <c r="F217">
-        <v>0</v>
+        <v>12.05219841276014</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>11.4619808683461</v>
+        <v>11.70213734537428</v>
       </c>
       <c r="C218">
-        <v>11.49515124545274</v>
+        <v>13.25381877381704</v>
       </c>
       <c r="D218">
-        <v>11.47462265381783</v>
+        <v>11.22707623724073</v>
       </c>
       <c r="E218">
-        <v>11.63856817935503</v>
+        <v>12.13775052984987</v>
       </c>
       <c r="F218">
-        <v>0</v>
+        <v>11.98307630366562</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>11.38589640023066</v>
+        <v>11.62488948495571</v>
       </c>
       <c r="C219">
-        <v>11.41833125330264</v>
+        <v>13.17926547321077</v>
       </c>
       <c r="D219">
-        <v>11.39935819935485</v>
+        <v>11.15316957051867</v>
       </c>
       <c r="E219">
-        <v>11.56235474209348</v>
+        <v>12.06772573583157</v>
       </c>
       <c r="F219">
-        <v>0</v>
+        <v>11.91395345312485</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>11.30987237927192</v>
+        <v>11.54766781241745</v>
       </c>
       <c r="C220">
-        <v>11.34156962920122</v>
+        <v>13.10456072063611</v>
       </c>
       <c r="D220">
-        <v>11.32414265453087</v>
+        <v>11.07932566822256</v>
       </c>
       <c r="E220">
-        <v>11.4861716154348</v>
+        <v>11.99761033227486</v>
       </c>
       <c r="F220">
-        <v>0</v>
+        <v>11.84483190422751</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>11.23390983709079</v>
+        <v>11.47047439517446</v>
       </c>
       <c r="C221">
-        <v>11.26486726496842</v>
+        <v>13.02971042067212</v>
       </c>
       <c r="D221">
-        <v>11.24897706051442</v>
+        <v>11.00554560560923</v>
       </c>
       <c r="E221">
-        <v>11.41002051129167</v>
+        <v>11.92740882796406</v>
       </c>
       <c r="F221">
-        <v>0</v>
+        <v>11.77571361226064</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>11.15800972548867</v>
+        <v>11.39331120137951</v>
       </c>
       <c r="C222">
-        <v>11.1882250387763</v>
+        <v>12.95472035153266</v>
       </c>
       <c r="D222">
-        <v>11.17386241317217</v>
+        <v>10.9318304247422</v>
       </c>
       <c r="E222">
-        <v>11.33390306109305</v>
+        <v>11.85712560354086</v>
       </c>
       <c r="F222">
-        <v>0</v>
+        <v>11.7066004489142</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>11.08217299408026</v>
+        <v>11.31618014160877</v>
       </c>
       <c r="C223">
-        <v>11.11164378266259</v>
+        <v>12.87959615863616</v>
       </c>
       <c r="D223">
-        <v>11.09879967505945</v>
+        <v>10.85818111841906</v>
       </c>
       <c r="E223">
-        <v>11.25782083493407</v>
+        <v>11.78676489841274</v>
       </c>
       <c r="F223">
-        <v>0</v>
+        <v>11.6374942356612</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>11.00640053684198</v>
+        <v>11.23908304191844</v>
       </c>
       <c r="C224">
-        <v>11.03512428516802</v>
+        <v>12.80434334815278</v>
       </c>
       <c r="D224">
-        <v>11.02378976203184</v>
+        <v>10.78459862776076</v>
       </c>
       <c r="E224">
-        <v>11.18177533078658</v>
+        <v>11.71633085239701</v>
       </c>
       <c r="F224">
-        <v>0</v>
+        <v>11.56839671918252</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>10.93069319342815</v>
+        <v>11.16202163709094</v>
       </c>
       <c r="C225">
-        <v>10.95866725123899</v>
+        <v>12.72896731864111</v>
       </c>
       <c r="D225">
-        <v>10.94883349932983</v>
+        <v>10.71108386392223</v>
       </c>
       <c r="E225">
-        <v>11.10576797639482</v>
+        <v>11.64582749679649</v>
       </c>
       <c r="F225">
-        <v>0</v>
+        <v>11.4993095609811</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>10.8550517679258</v>
+        <v>11.08499760427989</v>
       </c>
       <c r="C226">
-        <v>10.88227340712598</v>
+        <v>12.65347334436554</v>
       </c>
       <c r="D226">
-        <v>10.87393171565063</v>
+        <v>10.63763769805256</v>
       </c>
       <c r="E226">
-        <v>11.02980014595132</v>
+        <v>11.57525875081941</v>
       </c>
       <c r="F226">
-        <v>0</v>
+        <v>11.43023438199665</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>10.77947703719555</v>
+        <v>11.00801255283935</v>
       </c>
       <c r="C227">
-        <v>10.80594342733504</v>
+        <v>12.57786657624891</v>
       </c>
       <c r="D227">
-        <v>10.79908519630758</v>
+        <v>10.56426095434481</v>
       </c>
       <c r="E227">
-        <v>10.95387314939385</v>
+        <v>11.50462840980036</v>
       </c>
       <c r="F227">
-        <v>0</v>
+        <v>11.36117273728842</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>10.703969739601</v>
+        <v>10.93106802180409</v>
       </c>
       <c r="C228">
-        <v>10.72967794314256</v>
+        <v>12.50215205086535</v>
       </c>
       <c r="D228">
-        <v>10.72429468445152</v>
+        <v>10.49095443390372</v>
       </c>
       <c r="E228">
-        <v>10.8779882354372</v>
+        <v>11.43394018022623</v>
       </c>
       <c r="F228">
-        <v>0</v>
+        <v>11.29212611484923</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>10.62853057515636</v>
+        <v>10.85416547790761</v>
       </c>
       <c r="C229">
-        <v>10.65347753491643</v>
+        <v>12.42633469987494</v>
       </c>
       <c r="D229">
-        <v>10.64956085023456</v>
+        <v>10.41771890366921</v>
       </c>
       <c r="E229">
-        <v>10.80214660574638</v>
+        <v>11.3631976692242</v>
       </c>
       <c r="F229">
-        <v>0</v>
+        <v>11.2230959494547</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>10.55316022168658</v>
+        <v>10.77730634338119</v>
       </c>
       <c r="C230">
-        <v>10.57734278566502</v>
+        <v>12.35041934406324</v>
       </c>
       <c r="D230">
-        <v>10.57488437397114</v>
+        <v>10.34455509230398</v>
       </c>
       <c r="E230">
-        <v>10.72634940488868</v>
+        <v>11.29240438515903</v>
       </c>
       <c r="F230">
-        <v>0</v>
+        <v>11.1540836293542</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>10.47785932750105</v>
+        <v>10.70049197966975</v>
       </c>
       <c r="C231">
-        <v>10.50127423857854</v>
+        <v>12.27441068826204</v>
       </c>
       <c r="D231">
-        <v>10.50026588925568</v>
+        <v>10.27146370500653</v>
       </c>
       <c r="E231">
-        <v>10.6505977246458</v>
+        <v>11.2215637249969</v>
       </c>
       <c r="F231">
-        <v>0</v>
+        <v>11.0850904876802</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>10.40262850415986</v>
+        <v>10.62372367255165</v>
       </c>
       <c r="C232">
-        <v>10.42527239889575</v>
+        <v>12.19831334594498</v>
       </c>
       <c r="D232">
-        <v>10.42570599319927</v>
+        <v>10.19844542129754</v>
       </c>
       <c r="E232">
-        <v>10.57489261465263</v>
+        <v>11.15067900906064</v>
       </c>
       <c r="F232">
-        <v>0</v>
+        <v>11.0161178009615</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>10.32746833125662</v>
+        <v>10.54700266918354</v>
       </c>
       <c r="C233">
-        <v>10.34933774565359</v>
+        <v>12.12213182713587</v>
       </c>
       <c r="D233">
-        <v>10.35120524118611</v>
+        <v>10.12550088873882</v>
       </c>
       <c r="E233">
-        <v>10.49923507417845</v>
+        <v>11.07975346751724</v>
       </c>
       <c r="F233">
-        <v>0</v>
+        <v>10.9471668101344</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>10.25237938021465</v>
+        <v>10.47033016809937</v>
       </c>
       <c r="C234">
-        <v>10.27347074340175</v>
+        <v>12.04587054009178</v>
       </c>
       <c r="D234">
-        <v>10.27676417877091</v>
+        <v>10.05263073162368</v>
       </c>
       <c r="E234">
-        <v>10.42362605712191</v>
+        <v>11.00879024334395</v>
       </c>
       <c r="F234">
-        <v>0</v>
+        <v>10.87823870912423</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>10.17736219400465</v>
+        <v>10.39370731304903</v>
       </c>
       <c r="C235">
-        <v>10.19767182923889</v>
+        <v>11.96953379608674</v>
       </c>
       <c r="D235">
-        <v>10.20238331819592</v>
+        <v>9.979835555204302</v>
       </c>
       <c r="E235">
-        <v>10.34806647956866</v>
+        <v>10.93779237113127</v>
       </c>
       <c r="F235">
-        <v>0</v>
+        <v>10.80933463921217</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>10.10241728178536</v>
+        <v>10.31713518907329</v>
       </c>
       <c r="C236">
-        <v>10.12194141446738</v>
+        <v>11.89312581976495</v>
       </c>
       <c r="D236">
-        <v>10.12806314372794</v>
+        <v>9.907115938891581</v>
       </c>
       <c r="E236">
-        <v>10.27255721324022</v>
+        <v>10.86676282662684</v>
       </c>
       <c r="F236">
-        <v>0</v>
+        <v>10.74045570947622</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>10.02754514401505</v>
+        <v>10.24061485203792</v>
       </c>
       <c r="C237">
-        <v>10.04627989344858</v>
+        <v>11.81665074380362</v>
       </c>
       <c r="D237">
-        <v>10.05380411582383</v>
+        <v>9.8344724400619</v>
       </c>
       <c r="E237">
-        <v>10.19709909090193</v>
+        <v>10.79570450158164</v>
       </c>
       <c r="F237">
-        <v>0</v>
+        <v>10.67160299017426</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>9.952746259881028</v>
+        <v>10.16414730979905</v>
       </c>
       <c r="C238">
-        <v>9.970687642284823</v>
+        <v>11.74011260299988</v>
       </c>
       <c r="D238">
-        <v>9.979606675889595</v>
+        <v>9.761905601507117</v>
       </c>
       <c r="E238">
-        <v>10.12169291156499</v>
+        <v>10.72462020950766</v>
       </c>
       <c r="F238">
-        <v>0</v>
+        <v>10.60277750978623</v>
       </c>
     </row>
   </sheetData>
